--- a/update_data/data/ecovacs/qa/问答整理.xlsx
+++ b/update_data/data/ecovacs/qa/问答整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="105" windowWidth="14430" windowHeight="12690" activeTab="6"/>
+    <workbookView xWindow="8250" yWindow="105" windowWidth="14430" windowHeight="12690" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="门店" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
-    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="7"/>
     <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1675" windowHeight="837" activeSheetId="1"/>
     <customWorkbookView name="颜倩 - 个人视图" guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" activeSheetId="6"/>
     <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" activeSheetId="1"/>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="9"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -724,10 +724,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你们的沁宝可以除甲醛吗？/你们的空气净化器可以除甲醛吗？/空气净化器能除甲醛吗？/沁宝可以除甲醛吗？/沁宝可以祛除甲醛吗？/能用空气净化器除甲醛吗？/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你们沁宝滤芯多久更换一次？</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -736,10 +732,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>你们空气净化机器人滤芯多久要更换一次？/你们沁宝滤芯多久要更换一次？/你们空气净化机器人滤芯要换吗？/你们沁宝滤芯要换吗？/你们的滤芯能用多久？/你们的空气净化器滤芯能用多久？/要多久换一次滤芯？/滤芯能用多久啊？/多久换一次沁宝的滤芯？/沁宝的滤芯多久要换一次？/你们沁宝滤芯能用多久？/你们沁宝滤芯要更换吗？/你们空气净化器滤芯多久更换一次/你们空气净化器滤芯能用多久？/你们空气净化器滤芯要更换吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你们这款空气净化器可以除甲醛吗？</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -768,10 +760,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以放窗户外的玻璃擦吗/能擦外面的窗户吗/窗户外面的玻璃也可以擦吗/可以擦窗户外面吗/能擦高层的窗户吗/外面的窗户能擦吗？/外面的窗户可以擦吗？/可以擦外面的窗户吗？/窗宝能擦外面的窗户吗？/窗宝可以擦外面的窗户吗？/窗宝可不可以擦外面的窗户？/擦窗机器人能擦外面的窗户吗？/擦窗机器人可以擦外面的窗户吗？/擦窗机器人能擦外面的窗户吗？/可以用擦窗机器人擦外面的窗户？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>带我去</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -793,18 +781,6 @@
   </si>
   <si>
     <t>你能带我去看看吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带我去看DD56/带我去看DG716/带我去看DG36/带我去看W855/带我去看A650/带我去看地宝/带起去看窗宝/带我去看沁宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哪里有擦窗机器人？/擦窗机器人在哪里/哪里有擦窗机器人/擦窗机器人在什么地方/我要在哪里可以看擦窗机器人/擦窗机器人在哪/擦窗机器人在哪里/擦窗机器人在哪里看/哪里擦窗机器人/擦窗机器人在哪/哪里有擦窗机器人/我想看看擦窗机器人/我想知道哪里有擦窗机器人/带我看看擦窗机器人吧/你可以告诉我哪里有擦窗机器人吗/能不能告诉我擦窗机器人在哪/哪里有窗宝？/窗宝在哪里/哪里有窗宝/窗宝在什么地方/我要在哪里可以看窗宝/窗宝在哪/窗宝在哪里/窗宝在哪里看/哪里窗宝/窗宝在哪/哪里有窗宝/我想看看窗宝/我想知道哪里有窗宝/带我看看窗宝吧/你可以告诉我哪里有窗宝吗/能不能告诉我窗宝在哪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>哪里有沁宝？/沁宝在哪里/哪里有沁宝/沁宝在什么地方/我要在哪里可以看沁宝/沁宝在哪/沁宝在哪里/沁宝在哪里看/哪里沁宝/沁宝在哪/哪里有沁宝/我想看看沁宝/我想知道哪里有沁宝/带我看看沁宝吧/你可以告诉我哪里有沁宝吗/能不能告诉我沁宝在哪/哪里有空气净化机器人？/空气净化机器人在哪里/哪里有空气净化机器人/空气净化机器人在什么地方/我要在哪里可以看空气净化机器人/空气净化机器人在哪/空气净化机器人在哪里/空气净化机器人在哪里看/哪里空气净化机器人/空气净化机器人在哪/哪里有空气净化机器人/我想看看空气净化机器人/我想知道哪里有空气净化机器人/带我看看空气净化机器人吧/你可以告诉我哪里有空气净化机器人吗/能不能告诉我空气净化机器人在哪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2437,10 +2413,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>你们店里有几款窗宝？/你们店里有哪些擦窗机器人/你们店里有什么擦窗机器人/你们店里有多少擦窗机器人/你们店里擦窗机器人有多少种类/擦窗机器人有几款/擦窗机器人有多少种/擦窗机器人有多少种类/擦窗机器人有多少/擦窗机器人有哪些/店里的擦窗机器人有哪些/店里的擦窗机器人有多少种/店里的擦窗机器人有几款/店里的擦窗机器人有多少/店里的擦窗机器人有哪些种类/有哪些擦窗机器人/有几款擦窗机器人/有多少种擦窗机器人/有多少擦窗机器人/擦窗机器人有几个品种/擦窗机器人有几个类型/擦窗机器人有几种型号/有几种型号的擦窗机器人/有几种款式的擦窗机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2701,10 +2673,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>你们店里就两款空气净化机器人啊/只有两款空气净化机器人吗/还有其他空气净化机器人吗/就这两种空气净化机器人吗/空气净化机器人就两款吗/空气净化机器人只有两款吗/空气净化机器人只有两个类型吗/空气净化机器人只有两种型号吗/只有一款空气净化机器人吗/还有其他空气净化机器人吗/就这一种空气净化机器人吗/空气净化机器人就一款吗/空气净化机器人只有一款吗/空气净化机器人只有一个类型吗/空气净化机器人只有一种型号吗/怎么只要有两款沁宝啊？/怎么只有两款擦窗机器人？/怎么只有两款擦窗的？/擦窗的怎么只有两款？/擦窗机器人怎么只有两款？/擦窗机器人怎么这么少？/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>沁宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2742,10 +2710,6 @@
   </si>
   <si>
     <t>请点击旺宝主界面的导航按钮，选择心仪的商品，再点击“导航去”，旺宝就会带你去。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哪里有扫地机？/扫地机在哪里/哪里有扫地机/扫地机在什么地方/我要在哪里可以看扫地机/扫地机在哪/扫地机在哪里/扫地机在哪里看/哪里扫地机/扫地机在哪/哪里有扫地机/我想看看扫地机/我想知道哪里有扫地机/带我看看扫地机吧/你可以告诉我哪里有扫地机吗/能不能告诉我扫地机在哪/哪里有扫地机器人？/扫地机器人在哪里/哪里有扫地机器人/扫地机器人在什么地方/我要在哪里可以看扫地机器人/扫地机器人在哪/扫地机器人在哪里/扫地机器人在哪里看/哪里扫地机器人/扫地机器人在哪/哪里有扫地机器人/我想看看扫地机器人/我想知道哪里有扫地机器人/带我看看扫地机器人吧/你可以告诉我哪里有扫地机器人吗/能不能告诉我扫地机器人在哪/哪里有地宝？/地宝在哪里/哪里有地宝/地宝在什么地方/我要在哪里可以看地宝/地宝在哪/地宝在哪里/地宝在哪里看/哪里地宝/地宝在哪/哪里有地宝/我想看看地宝/我想知道哪里有地宝/带我看看地宝吧/你可以告诉我哪里有地宝吗/能不能告诉我地宝在哪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2889,7 +2853,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你们有活动吗？/买机器人便宜么？/买地宝便宜么？/买沁宝便宜么？/买窗宝便宜么？/买擦窗机器人有优惠么？/买扫地机器人有优惠么？/买净化空气的机器人便宜么？/卖地宝有什么优惠吗？/买窗宝有什么优惠吗？/买沁宝有什么优惠吗？/买地宝有优惠吗？/买窗宝有优惠吗？/买沁宝有优惠吗？/</t>
+    <t>哪里有扫地机？/扫地机在哪里/哪里有扫地机/扫地机在什么地方/我要在哪里可以看扫地机/扫地机在哪/扫地机在哪里/扫地机在哪里看/哪里扫地机/扫地机在哪/哪里有扫地机/我想看看扫地机/我想知道哪里有扫地机/带我看看扫地机吧/你可以告诉我哪里有扫地机吗/能不能告诉我扫地机在哪/哪里有扫地机器人？/扫地机器人在哪里/哪里有扫地机器人/扫地机器人在什么地方/我要在哪里可以看扫地机器人/扫地机器人在哪/扫地机器人在哪里/扫地机器人在哪里看/哪里有扫地机器人/扫地机器人在哪/哪里有扫地机器人/我想看看扫地机器人/我想知道哪里有扫地机器人/带我看看扫地机器人吧/你可以告诉我哪里有扫地机器人吗/能不能告诉我扫地机器人在哪/哪里有扫地机器人？/扫地机器人在哪里/哪里有扫地机器人/扫地机器人在什么地方/我要在哪里可以看扫地机器人/扫地机器人在哪/扫地机器人在哪里/扫地机器人在哪里看/哪里扫地机器人/扫地机器人在哪/哪里有扫地机器人/我想看看扫地机器人/我想知道哪里有扫地机器人/带我看看扫地机器人吧/你可以告诉我哪里有扫地机器人吗/能不能告诉我扫地机器人在哪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪里有擦窗机器人？/擦窗机器人在哪里/哪里有擦窗机器人/擦窗机器人在什么地方/我要在哪里可以看擦窗机器人/擦窗机器人在哪/擦窗机器人在哪里/擦窗机器人在哪里看/哪里擦窗机器人/擦窗机器人在哪/哪里有擦窗机器人/我想看看擦窗机器人/我想知道哪里有擦窗机器人/带我看看擦窗机器人吧/你可以告诉我哪里有擦窗机器人吗/能不能告诉我擦窗机器人在哪/哪里有擦窗机器人？/擦窗机器人在哪里/哪里有擦窗机器人/擦窗机器人在什么地方/我要在哪里可以看擦窗机器人/擦窗机器人在哪/擦窗机器人在哪里/擦窗机器人在哪里看/哪里擦窗机器人/擦窗机器人在哪/哪里有擦窗机器人/我想看看擦窗机器人/我想知道哪里有擦窗机器人/带我看看擦窗机器人吧/你可以告诉我哪里有擦窗机器人吗/能不能告诉我擦窗机器人在哪</t>
+  </si>
+  <si>
+    <t>你们店里有几款擦窗机器人？/你们店里有哪些擦窗机器人/你们店里有什么擦窗机器人/你们店里有多少擦窗机器人/你们店里擦窗机器人有多少种类/擦窗机器人有几款/擦窗机器人有多少种/擦窗机器人有多少种类/擦窗机器人有多少/擦窗机器人有哪些/店里的擦窗机器人有哪些/店里的擦窗机器人有多少种/店里的擦窗机器人有几款/店里的擦窗机器人有多少/店里的擦窗机器人有哪些种类/有哪些擦窗机器人/有几款擦窗机器人/有多少种擦窗机器人/有多少擦窗机器人/擦窗机器人有几个品种/擦窗机器人有几个类型/擦窗机器人有几种型号/有几种型号的擦窗机器人/有几种款式的擦窗机器人</t>
+  </si>
+  <si>
+    <t>可以放窗户外的玻璃擦吗/能擦外面的窗户吗/窗户外面的玻璃也可以擦吗/可以擦窗户外面吗/能擦高层的窗户吗/外面的窗户能擦吗？/外面的窗户可以擦吗？/可以擦外面的窗户吗？/擦窗机器人能擦外面的窗户吗？/擦窗机器人可以擦外面的窗户吗？/擦窗机器人可不可以擦外面的窗户？/擦窗机器人能擦外面的窗户吗？/擦窗机器人可以擦外面的窗户吗？/擦窗机器人能擦外面的窗户吗？/可以用擦窗机器人擦外面的窗户？</t>
+  </si>
+  <si>
+    <t>哪里有空气净化机器人？/空气净化机器人在哪里/哪里有空气净化机器人/空气净化机器人在什么地方/我要在哪里可以看空气净化机器人/空气净化机器人在哪/空气净化机器人在哪里/空气净化机器人在哪里看/哪里空气净化机器人/空气净化机器人在哪/哪里有空气净化机器人/我想看看空气净化机器人/我想知道哪里有空气净化机器人/带我看看空气净化机器人吧/你可以告诉我哪里有空气净化机器人吗/能不能告诉我空气净化机器人在哪/哪里有空气净化机器人？/空气净化机器人在哪里/哪里有空气净化机器人/空气净化机器人在什么地方/我要在哪里可以看空气净化机器人/空气净化机器人在哪/空气净化机器人在哪里/空气净化机器人在哪里看/哪里空气净化机器人/空气净化机器人在哪/哪里有空气净化机器人/我想看看空气净化机器人/我想知道哪里有空气净化机器人/带我看看空气净化机器人吧/你可以告诉我哪里有空气净化机器人吗/能不能告诉我空气净化机器人在哪</t>
+  </si>
+  <si>
+    <t>你们店里就两款空气净化机器人啊/只有两款空气净化机器人吗/还有其他空气净化机器人吗/就这两种空气净化机器人吗/空气净化机器人就两款吗/空气净化机器人只有两款吗/空气净化机器人只有两个类型吗/空气净化机器人只有两种型号吗/只有一款空气净化机器人吗/还有其他空气净化机器人吗/就这一种空气净化机器人吗/空气净化机器人就一款吗/空气净化机器人只有一款吗/空气净化机器人只有一个类型吗/空气净化机器人只有一种型号吗/怎么只要有两款空气净化机器人啊？/怎么只有两款擦窗机器人？/怎么只有两款擦窗的？/擦窗的怎么只有两款？/擦窗机器人怎么只有两款？/擦窗机器人怎么这么少？/</t>
+  </si>
+  <si>
+    <t>你们空气净化机器人滤芯多久要更换一次？/你们空气净化机器人滤芯多久要更换一次？/你们空气净化机器人滤芯要换吗？/你们空气净化机器人滤芯要换吗？/你们的滤芯能用多久？/你们的空气净化器滤芯能用多久？/要多久换一次滤芯？/滤芯能用多久啊？/多久换一次空气净化机器人的滤芯？/空气净化机器人的滤芯多久要换一次？/你们空气净化机器人滤芯能用多久？/你们空气净化机器人滤芯要更换吗？/你们空气净化器滤芯多久更换一次/你们空气净化器滤芯能用多久？/你们空气净化器滤芯要更换吗？</t>
+  </si>
+  <si>
+    <t>你们的空气净化机器人可以除甲醛吗？/你们的空气净化器可以除甲醛吗？/空气净化器能除甲醛吗？/空气净化机器人可以除甲醛吗？/空气净化机器人可以祛除甲醛吗？/能用空气净化器除甲醛吗？/</t>
+  </si>
+  <si>
+    <t>带我去看DD56/带我去看DG716/带我去看DG36/带我去看W855/带我去看A650/带我去看扫地机器人/带起去看擦窗机器人/带我去看空气净化机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你们有活动吗？/买机器人便宜么？/买扫地机器人便宜么？/买空气净化机器人便宜么？/买擦窗机器人便宜么？/买擦窗机器人有优惠么？/买扫地机器人有优惠么？/买净化空气的机器人便宜么？/卖扫地机器人有什么优惠吗？/买擦窗机器人有什么优惠吗？/买空气净化机器人有什么优惠吗？/买扫地机器人有优惠吗？/买擦窗机器人有优惠吗？/买空气净化机器人有优惠吗？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/有啥活动/你们这有什么活动/有什么优惠活动啊/有优惠活动吗/有没有优惠活动啊/有没有优惠活动呀/有什么活动啊/有活动吗/有没有活动啊/有没有活动呀/你们都有啥活动啊/你们这里都有啥活动/你能告诉我你们这里都有什么活动吗/可以跟我说说你们这里都有什么活动吗/可以告诉我你们这里都有什么活动啊/有促销吗/促销活动有吗/有没有促销啊/最近有什么活动没有/你们有没有活动/有没有活动介绍一下/促销活动有吗/告诉我有没有什么活动/那你说说有没有优惠活动/最近有什么活动/有什么活动/有什么优惠/优惠信息讲一下/我想了解一下你们店的优惠/你们店有什么优惠/你们店有什么活动/你们店最近有什么活动/你们店的活动/你们店有什么特价/你们店的特价商品/你们店的促销/你们店的促销信息/你们店的促销活动/有什么优惠活动呢/你知道都有什么优惠吗/优惠都有什么你知道吗/你能告诉我都有什么优惠吗/优惠都有什么啊/你知道都有哪些优惠吗/有哪些优惠信息/优惠信息有什么/都有什么优惠信息啊/能给我介绍下你们的活动吗/介绍下你们的活动吧/给我介绍一下你们的活动/有什么活动给我介绍一下/给我介绍一下你们的活动吧/有什么活动给我介绍一下/你们都有什么活动啊/能给我说一下你们的活动吗/把你们的活动给我说一下吧/给我说一下你们的活动/把你们的活动给我说说吧/说说你们都有什么活动啊/给我介绍一下你们都有什么活动/</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3246,7 +3252,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{9DC0FCD8-1FF7-485E-AE81-CE529040C790}" diskRevisions="1" revisionId="3509" version="664">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{8827AB8F-A12D-42A1-B465-46B27985FECE}" diskRevisions="1" revisionId="3523" version="676">
   <header guid="{6D9F5AE3-D12B-4167-924E-9AD1BDC9A3C4}" dateTime="2017-11-03T11:01:41" maxSheetId="10" userName="fang.gao(高芳)" r:id="rId446" minRId="1881" maxRId="1905">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -6166,6 +6172,174 @@
       <sheetId val="10"/>
     </sheetIdMap>
   </header>
+  <header guid="{02909CD0-9186-4A9D-8D92-15818302587C}" dateTime="2017-12-13T11:06:05" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId665" minRId="3510">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{62759DA1-C73E-4965-A837-03C2EB8AA34F}" dateTime="2017-12-13T11:11:52" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId666" minRId="3511">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{70EA2582-9CBB-4D2F-91B1-FC21F8D16472}" dateTime="2017-12-13T11:12:17" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId667" minRId="3512" maxRId="3514">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D4DC6764-F8B7-4D3C-85F8-183F87A5F6DA}" dateTime="2017-12-13T11:12:43" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId668" minRId="3515" maxRId="3518">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{677481B5-EA2C-486B-84B3-B4A8118A95A9}" dateTime="2017-12-13T11:13:19" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId669">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3C43C422-3629-458F-9F65-727479ED3A76}" dateTime="2017-12-13T11:13:58" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId670" minRId="3519">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7F4F6377-2847-4EFD-8EF1-7CC60D7F835D}" dateTime="2017-12-13T11:15:00" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId671" minRId="3520">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8DA1F17F-AFE1-4863-AA01-FE36E3A5E12A}" dateTime="2017-12-13T11:15:16" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId672" minRId="3521">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9B9C8D93-878D-4966-BB1E-190DC0BAE9C1}" dateTime="2017-12-13T11:15:28" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId673">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2EAAED47-45EF-4F48-91B6-DF43364FF090}" dateTime="2017-12-13T11:16:07" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId674" minRId="3522">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AD142D22-81E8-49E8-8F5D-FDA7D25CC27B}" dateTime="2017-12-13T11:16:22" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId675" minRId="3523">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8827AB8F-A12D-42A1-B465-46B27985FECE}" dateTime="2017-12-13T11:17:01" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId676">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -7053,6 +7227,144 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3510" sId="9">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>你们有活动吗？/买机器人便宜么？/买地宝便宜么？/买沁宝便宜么？/买窗宝便宜么？/买擦窗机器人有优惠么？/买扫地机器人有优惠么？/买净化空气的机器人便宜么？/卖地宝有什么优惠吗？/买窗宝有什么优惠吗？/买沁宝有什么优惠吗？/买地宝有优惠吗？/买窗宝有优惠吗？/买沁宝有优惠吗？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>你们有活动吗？/买机器人便宜么？/买扫地机器人便宜么？/买空气净化机器人便宜么？/买擦窗机器人便宜么？/买擦窗机器人有优惠么？/买扫地机器人有优惠么？/买净化空气的机器人便宜么？/卖扫地机器人有什么优惠吗？/买擦窗机器人有什么优惠吗？/买空气净化机器人有什么优惠吗？/买扫地机器人有优惠吗？/买擦窗机器人有优惠吗？/买空气净化机器人有优惠吗？/</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3511" sId="4">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>哪里有扫地机？/扫地机在哪里/哪里有扫地机/扫地机在什么地方/我要在哪里可以看扫地机/扫地机在哪/扫地机在哪里/扫地机在哪里看/哪里扫地机/扫地机在哪/哪里有扫地机/我想看看扫地机/我想知道哪里有扫地机/带我看看扫地机吧/你可以告诉我哪里有扫地机吗/能不能告诉我扫地机在哪/哪里有扫地机器人？/扫地机器人在哪里/哪里有扫地机器人/扫地机器人在什么地方/我要在哪里可以看扫地机器人/扫地机器人在哪/扫地机器人在哪里/扫地机器人在哪里看/哪里扫地机器人/扫地机器人在哪/哪里有扫地机器人/我想看看扫地机器人/我想知道哪里有扫地机器人/带我看看扫地机器人吧/你可以告诉我哪里有扫地机器人吗/能不能告诉我扫地机器人在哪/哪里有地宝？/地宝在哪里/哪里有地宝/地宝在什么地方/我要在哪里可以看地宝/地宝在哪/地宝在哪里/地宝在哪里看/哪里地宝/地宝在哪/哪里有地宝/我想看看地宝/我想知道哪里有地宝/带我看看地宝吧/你可以告诉我哪里有地宝吗/能不能告诉我地宝在哪</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>哪里有扫地机？/扫地机在哪里/哪里有扫地机/扫地机在什么地方/我要在哪里可以看扫地机/扫地机在哪/扫地机在哪里/扫地机在哪里看/哪里扫地机/扫地机在哪/哪里有扫地机/我想看看扫地机/我想知道哪里有扫地机/带我看看扫地机吧/你可以告诉我哪里有扫地机吗/能不能告诉我扫地机在哪/哪里有扫地机器人？/扫地机器人在哪里/哪里有扫地机器人/扫地机器人在什么地方/我要在哪里可以看扫地机器人/扫地机器人在哪/扫地机器人在哪里/扫地机器人在哪里看/哪里有扫地机器人/扫地机器人在哪/哪里有扫地机器人/我想看看扫地机器人/我想知道哪里有扫地机器人/带我看看扫地机器人吧/你可以告诉我哪里有扫地机器人吗/能不能告诉我扫地机器人在哪/哪里有扫地机器人？/扫地机器人在哪里/哪里有扫地机器人/扫地机器人在什么地方/我要在哪里可以看扫地机器人/扫地机器人在哪/扫地机器人在哪里/扫地机器人在哪里看/哪里扫地机器人/扫地机器人在哪/哪里有扫地机器人/我想看看扫地机器人/我想知道哪里有扫地机器人/带我看看扫地机器人吧/你可以告诉我哪里有扫地机器人吗/能不能告诉我扫地机器人在哪</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3512" sId="5">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>哪里有擦窗机器人？/擦窗机器人在哪里/哪里有擦窗机器人/擦窗机器人在什么地方/我要在哪里可以看擦窗机器人/擦窗机器人在哪/擦窗机器人在哪里/擦窗机器人在哪里看/哪里擦窗机器人/擦窗机器人在哪/哪里有擦窗机器人/我想看看擦窗机器人/我想知道哪里有擦窗机器人/带我看看擦窗机器人吧/你可以告诉我哪里有擦窗机器人吗/能不能告诉我擦窗机器人在哪/哪里有窗宝？/窗宝在哪里/哪里有窗宝/窗宝在什么地方/我要在哪里可以看窗宝/窗宝在哪/窗宝在哪里/窗宝在哪里看/哪里窗宝/窗宝在哪/哪里有窗宝/我想看看窗宝/我想知道哪里有窗宝/带我看看窗宝吧/你可以告诉我哪里有窗宝吗/能不能告诉我窗宝在哪</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>哪里有擦窗机器人？/擦窗机器人在哪里/哪里有擦窗机器人/擦窗机器人在什么地方/我要在哪里可以看擦窗机器人/擦窗机器人在哪/擦窗机器人在哪里/擦窗机器人在哪里看/哪里擦窗机器人/擦窗机器人在哪/哪里有擦窗机器人/我想看看擦窗机器人/我想知道哪里有擦窗机器人/带我看看擦窗机器人吧/你可以告诉我哪里有擦窗机器人吗/能不能告诉我擦窗机器人在哪/哪里有擦窗机器人？/擦窗机器人在哪里/哪里有擦窗机器人/擦窗机器人在什么地方/我要在哪里可以看擦窗机器人/擦窗机器人在哪/擦窗机器人在哪里/擦窗机器人在哪里看/哪里擦窗机器人/擦窗机器人在哪/哪里有擦窗机器人/我想看看擦窗机器人/我想知道哪里有擦窗机器人/带我看看擦窗机器人吧/你可以告诉我哪里有擦窗机器人吗/能不能告诉我擦窗机器人在哪</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3513" sId="5">
+    <oc r="D43" t="inlineStr">
+      <is>
+        <t>你们店里有几款窗宝？/你们店里有哪些擦窗机器人/你们店里有什么擦窗机器人/你们店里有多少擦窗机器人/你们店里擦窗机器人有多少种类/擦窗机器人有几款/擦窗机器人有多少种/擦窗机器人有多少种类/擦窗机器人有多少/擦窗机器人有哪些/店里的擦窗机器人有哪些/店里的擦窗机器人有多少种/店里的擦窗机器人有几款/店里的擦窗机器人有多少/店里的擦窗机器人有哪些种类/有哪些擦窗机器人/有几款擦窗机器人/有多少种擦窗机器人/有多少擦窗机器人/擦窗机器人有几个品种/擦窗机器人有几个类型/擦窗机器人有几种型号/有几种型号的擦窗机器人/有几种款式的擦窗机器人</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D43" t="inlineStr">
+      <is>
+        <t>你们店里有几款擦窗机器人？/你们店里有哪些擦窗机器人/你们店里有什么擦窗机器人/你们店里有多少擦窗机器人/你们店里擦窗机器人有多少种类/擦窗机器人有几款/擦窗机器人有多少种/擦窗机器人有多少种类/擦窗机器人有多少/擦窗机器人有哪些/店里的擦窗机器人有哪些/店里的擦窗机器人有多少种/店里的擦窗机器人有几款/店里的擦窗机器人有多少/店里的擦窗机器人有哪些种类/有哪些擦窗机器人/有几款擦窗机器人/有多少种擦窗机器人/有多少擦窗机器人/擦窗机器人有几个品种/擦窗机器人有几个类型/擦窗机器人有几种型号/有几种型号的擦窗机器人/有几种款式的擦窗机器人</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3514" sId="5">
+    <oc r="D44" t="inlineStr">
+      <is>
+        <t>可以放窗户外的玻璃擦吗/能擦外面的窗户吗/窗户外面的玻璃也可以擦吗/可以擦窗户外面吗/能擦高层的窗户吗/外面的窗户能擦吗？/外面的窗户可以擦吗？/可以擦外面的窗户吗？/窗宝能擦外面的窗户吗？/窗宝可以擦外面的窗户吗？/窗宝可不可以擦外面的窗户？/擦窗机器人能擦外面的窗户吗？/擦窗机器人可以擦外面的窗户吗？/擦窗机器人能擦外面的窗户吗？/可以用擦窗机器人擦外面的窗户？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D44" t="inlineStr">
+      <is>
+        <t>可以放窗户外的玻璃擦吗/能擦外面的窗户吗/窗户外面的玻璃也可以擦吗/可以擦窗户外面吗/能擦高层的窗户吗/外面的窗户能擦吗？/外面的窗户可以擦吗？/可以擦外面的窗户吗？/擦窗机器人能擦外面的窗户吗？/擦窗机器人可以擦外面的窗户吗？/擦窗机器人可不可以擦外面的窗户？/擦窗机器人能擦外面的窗户吗？/擦窗机器人可以擦外面的窗户吗？/擦窗机器人能擦外面的窗户吗？/可以用擦窗机器人擦外面的窗户？</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3515" sId="6">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>哪里有沁宝？/沁宝在哪里/哪里有沁宝/沁宝在什么地方/我要在哪里可以看沁宝/沁宝在哪/沁宝在哪里/沁宝在哪里看/哪里沁宝/沁宝在哪/哪里有沁宝/我想看看沁宝/我想知道哪里有沁宝/带我看看沁宝吧/你可以告诉我哪里有沁宝吗/能不能告诉我沁宝在哪/哪里有空气净化机器人？/空气净化机器人在哪里/哪里有空气净化机器人/空气净化机器人在什么地方/我要在哪里可以看空气净化机器人/空气净化机器人在哪/空气净化机器人在哪里/空气净化机器人在哪里看/哪里空气净化机器人/空气净化机器人在哪/哪里有空气净化机器人/我想看看空气净化机器人/我想知道哪里有空气净化机器人/带我看看空气净化机器人吧/你可以告诉我哪里有空气净化机器人吗/能不能告诉我空气净化机器人在哪</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>哪里有空气净化机器人？/空气净化机器人在哪里/哪里有空气净化机器人/空气净化机器人在什么地方/我要在哪里可以看空气净化机器人/空气净化机器人在哪/空气净化机器人在哪里/空气净化机器人在哪里看/哪里空气净化机器人/空气净化机器人在哪/哪里有空气净化机器人/我想看看空气净化机器人/我想知道哪里有空气净化机器人/带我看看空气净化机器人吧/你可以告诉我哪里有空气净化机器人吗/能不能告诉我空气净化机器人在哪/哪里有空气净化机器人？/空气净化机器人在哪里/哪里有空气净化机器人/空气净化机器人在什么地方/我要在哪里可以看空气净化机器人/空气净化机器人在哪/空气净化机器人在哪里/空气净化机器人在哪里看/哪里空气净化机器人/空气净化机器人在哪/哪里有空气净化机器人/我想看看空气净化机器人/我想知道哪里有空气净化机器人/带我看看空气净化机器人吧/你可以告诉我哪里有空气净化机器人吗/能不能告诉我空气净化机器人在哪</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3516" sId="6">
+    <oc r="D34" t="inlineStr">
+      <is>
+        <t>你们店里就两款空气净化机器人啊/只有两款空气净化机器人吗/还有其他空气净化机器人吗/就这两种空气净化机器人吗/空气净化机器人就两款吗/空气净化机器人只有两款吗/空气净化机器人只有两个类型吗/空气净化机器人只有两种型号吗/只有一款空气净化机器人吗/还有其他空气净化机器人吗/就这一种空气净化机器人吗/空气净化机器人就一款吗/空气净化机器人只有一款吗/空气净化机器人只有一个类型吗/空气净化机器人只有一种型号吗/怎么只要有两款沁宝啊？/怎么只有两款擦窗机器人？/怎么只有两款擦窗的？/擦窗的怎么只有两款？/擦窗机器人怎么只有两款？/擦窗机器人怎么这么少？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D34" t="inlineStr">
+      <is>
+        <t>你们店里就两款空气净化机器人啊/只有两款空气净化机器人吗/还有其他空气净化机器人吗/就这两种空气净化机器人吗/空气净化机器人就两款吗/空气净化机器人只有两款吗/空气净化机器人只有两个类型吗/空气净化机器人只有两种型号吗/只有一款空气净化机器人吗/还有其他空气净化机器人吗/就这一种空气净化机器人吗/空气净化机器人就一款吗/空气净化机器人只有一款吗/空气净化机器人只有一个类型吗/空气净化机器人只有一种型号吗/怎么只要有两款空气净化机器人啊？/怎么只有两款擦窗机器人？/怎么只有两款擦窗的？/擦窗的怎么只有两款？/擦窗机器人怎么只有两款？/擦窗机器人怎么这么少？/</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3517" sId="6">
+    <oc r="D37" t="inlineStr">
+      <is>
+        <t>你们空气净化机器人滤芯多久要更换一次？/你们沁宝滤芯多久要更换一次？/你们空气净化机器人滤芯要换吗？/你们沁宝滤芯要换吗？/你们的滤芯能用多久？/你们的空气净化器滤芯能用多久？/要多久换一次滤芯？/滤芯能用多久啊？/多久换一次沁宝的滤芯？/沁宝的滤芯多久要换一次？/你们沁宝滤芯能用多久？/你们沁宝滤芯要更换吗？/你们空气净化器滤芯多久更换一次/你们空气净化器滤芯能用多久？/你们空气净化器滤芯要更换吗？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D37" t="inlineStr">
+      <is>
+        <t>你们空气净化机器人滤芯多久要更换一次？/你们空气净化机器人滤芯多久要更换一次？/你们空气净化机器人滤芯要换吗？/你们空气净化机器人滤芯要换吗？/你们的滤芯能用多久？/你们的空气净化器滤芯能用多久？/要多久换一次滤芯？/滤芯能用多久啊？/多久换一次空气净化机器人的滤芯？/空气净化机器人的滤芯多久要换一次？/你们空气净化机器人滤芯能用多久？/你们空气净化机器人滤芯要更换吗？/你们空气净化器滤芯多久更换一次/你们空气净化器滤芯能用多久？/你们空气净化器滤芯要更换吗？</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3518" sId="6">
+    <oc r="D38" t="inlineStr">
+      <is>
+        <t>你们的沁宝可以除甲醛吗？/你们的空气净化器可以除甲醛吗？/空气净化器能除甲醛吗？/沁宝可以除甲醛吗？/沁宝可以祛除甲醛吗？/能用空气净化器除甲醛吗？/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D38" t="inlineStr">
+      <is>
+        <t>你们的空气净化机器人可以除甲醛吗？/你们的空气净化器可以除甲醛吗？/空气净化器能除甲醛吗？/空气净化机器人可以除甲醛吗？/空气净化机器人可以祛除甲醛吗？/能用空气净化器除甲醛吗？/</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="3473" sId="3">
@@ -7125,6 +7437,181 @@
       </is>
     </nc>
   </rcc>
+  <rcv guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" action="delete"/>
+  <rcv guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" action="delete"/>
+  <rcv guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3519" sId="10">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>带我去看DD56/带我去看DG716/带我去看DG36/带我去看W855/带我去看A650/带我去看地宝/带起去看窗宝/带我去看沁宝</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>带我去看DD56/带我去看DG716/带我去看DG36/带我去看W855/带我去看A650/带我去看扫地机器人/带起去看擦窗机器人/带我去看空气净化机器人</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3520" sId="9">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>你们有活动吗？/买机器人便宜么？/买扫地机器人便宜么？/买空气净化机器人便宜么？/买擦窗机器人便宜么？/买擦窗机器人有优惠么？/买扫地机器人有优惠么？/买净化空气的机器人便宜么？/卖扫地机器人有什么优惠吗？/买擦窗机器人有什么优惠吗？/买空气净化机器人有什么优惠吗？/买扫地机器人有优惠吗？/买擦窗机器人有优惠吗？/买空气净化机器人有优惠吗？/</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>你们有活动吗？/买机器人便宜么？/买扫地机器人便宜么？/买空气净化机器人便宜么？/买擦窗机器人便宜么？/买擦窗机器人有优惠么？/买扫地机器人有优惠么？/买净化空气的机器人便宜么？/卖扫地机器人有什么优惠吗？/买擦窗机器人有什么优惠吗？/买空气净化机器人有什么优惠吗？/买扫地机器人有优惠吗？/买擦窗机器人有优惠吗？/买空气净化机器人有优惠吗？</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/有啥活动/你们这有什么活动/有什么优惠活动啊/有优惠活动吗/有没有优惠活动啊/有没有优惠活动呀/有什么活动啊/有活动吗/有没有活动啊/有没有活动呀/你们都有啥活动啊/你们这里都有啥活动/你能告诉我你们这里都有什么活动吗/可以跟我说说你们这里都有什么活动吗/可以告诉我你们这里都有什么活动啊/有促销吗/促销活动有吗/有没有促销啊/最近有什么活动没有/你们有没有活动/有没有活动介绍一下/促销活动有吗/告诉我有没有什么活动/那你说说有没有优惠活动/</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" action="delete"/>
+  <rcv guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3521" sId="9">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>你们有活动吗？/买机器人便宜么？/买扫地机器人便宜么？/买空气净化机器人便宜么？/买擦窗机器人便宜么？/买擦窗机器人有优惠么？/买扫地机器人有优惠么？/买净化空气的机器人便宜么？/卖扫地机器人有什么优惠吗？/买擦窗机器人有什么优惠吗？/买空气净化机器人有什么优惠吗？/买扫地机器人有优惠吗？/买擦窗机器人有优惠吗？/买空气净化机器人有优惠吗？</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/有啥活动/你们这有什么活动/有什么优惠活动啊/有优惠活动吗/有没有优惠活动啊/有没有优惠活动呀/有什么活动啊/有活动吗/有没有活动啊/有没有活动呀/你们都有啥活动啊/你们这里都有啥活动/你能告诉我你们这里都有什么活动吗/可以跟我说说你们这里都有什么活动吗/可以告诉我你们这里都有什么活动啊/有促销吗/促销活动有吗/有没有促销啊/最近有什么活动没有/你们有没有活动/有没有活动介绍一下/促销活动有吗/告诉我有没有什么活动/那你说说有没有优惠活动/</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>你们有活动吗？/买机器人便宜么？/买扫地机器人便宜么？/买空气净化机器人便宜么？/买擦窗机器人便宜么？/买擦窗机器人有优惠么？/买扫地机器人有优惠么？/买净化空气的机器人便宜么？/卖扫地机器人有什么优惠吗？/买擦窗机器人有什么优惠吗？/买空气净化机器人有什么优惠吗？/买扫地机器人有优惠吗？/买擦窗机器人有优惠吗？/买空气净化机器人有优惠吗？</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/有啥活动/你们这有什么活动/有什么优惠活动啊/有优惠活动吗/有没有优惠活动啊/有没有优惠活动呀/有什么活动啊/有活动吗/有没有活动啊/有没有活动呀/你们都有啥活动啊/你们这里都有啥活动/你能告诉我你们这里都有什么活动吗/可以跟我说说你们这里都有什么活动吗/可以告诉我你们这里都有什么活动啊/有促销吗/促销活动有吗/有没有促销啊/最近有什么活动没有/你们有没有活动/有没有活动介绍一下/促销活动有吗/告诉我有没有什么活动/那你说说有没有优惠活动/最近有什么活动/有什么活动/有什么优惠/优惠信息讲一下/我想了解一下无人店的优惠/无人店有什么优惠/无人店有什么活动/无人店最近有什么活动/无人店的活动/无人店有什么特价/无人店的特价商品/无人店的促销/无人店的促销信息/无人店的促销活动/有什么优惠活动呢/你知道都有什么优惠吗/优惠都有什么你知道吗/你能告诉我都有什么优惠吗/优惠都有什么啊/你知道都有哪些优惠吗/有哪些优惠信息/优惠信息有什么/都有什么优惠信息啊/能给我介绍下你们的活动吗/介绍下你们的活动吧/给我介绍一下你们的活动/有什么活动给我介绍一下/给我介绍一下你们的活动吧/有什么活动给我介绍一下/你们都有什么活动啊/能给我说一下你们的活动吗/把你们的活动给我说一下吧/给我说一下你们的活动/把你们的活动给我说说吧/说说你们都有什么活动啊/给我介绍一下你们都有什么活动/</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" action="delete"/>
+  <rcv guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3522" sId="9">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>你们有活动吗？/买机器人便宜么？/买扫地机器人便宜么？/买空气净化机器人便宜么？/买擦窗机器人便宜么？/买擦窗机器人有优惠么？/买扫地机器人有优惠么？/买净化空气的机器人便宜么？/卖扫地机器人有什么优惠吗？/买擦窗机器人有什么优惠吗？/买空气净化机器人有什么优惠吗？/买扫地机器人有优惠吗？/买擦窗机器人有优惠吗？/买空气净化机器人有优惠吗？</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/有啥活动/你们这有什么活动/有什么优惠活动啊/有优惠活动吗/有没有优惠活动啊/有没有优惠活动呀/有什么活动啊/有活动吗/有没有活动啊/有没有活动呀/你们都有啥活动啊/你们这里都有啥活动/你能告诉我你们这里都有什么活动吗/可以跟我说说你们这里都有什么活动吗/可以告诉我你们这里都有什么活动啊/有促销吗/促销活动有吗/有没有促销啊/最近有什么活动没有/你们有没有活动/有没有活动介绍一下/促销活动有吗/告诉我有没有什么活动/那你说说有没有优惠活动/最近有什么活动/有什么活动/有什么优惠/优惠信息讲一下/我想了解一下无人店的优惠/无人店有什么优惠/无人店有什么活动/无人店最近有什么活动/无人店的活动/无人店有什么特价/无人店的特价商品/无人店的促销/无人店的促销信息/无人店的促销活动/有什么优惠活动呢/你知道都有什么优惠吗/优惠都有什么你知道吗/你能告诉我都有什么优惠吗/优惠都有什么啊/你知道都有哪些优惠吗/有哪些优惠信息/优惠信息有什么/都有什么优惠信息啊/能给我介绍下你们的活动吗/介绍下你们的活动吧/给我介绍一下你们的活动/有什么活动给我介绍一下/给我介绍一下你们的活动吧/有什么活动给我介绍一下/你们都有什么活动啊/能给我说一下你们的活动吗/把你们的活动给我说一下吧/给我说一下你们的活动/把你们的活动给我说说吧/说说你们都有什么活动啊/给我介绍一下你们都有什么活动/</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>你们有活动吗？/买机器人便宜么？/买扫地机器人便宜么？/买空气净化机器人便宜么？/买擦窗机器人便宜么？/买擦窗机器人有优惠么？/买扫地机器人有优惠么？/买净化空气的机器人便宜么？/卖扫地机器人有什么优惠吗？/买擦窗机器人有什么优惠吗？/买空气净化机器人有什么优惠吗？/买扫地机器人有优惠吗？/买擦窗机器人有优惠吗？/买空气净化机器人有优惠吗？/有啥活动/你们这有什么活动/有什么优惠活动啊/有优惠活动吗/有没有优惠活动啊/有没有优惠活动呀/有什么活动啊/有活动吗/有没有活动啊/有没有活动呀/你们都有啥活动啊/你们这里都有啥活动/你能告诉我你们这里都有什么活动吗/可以跟我说说你们这里都有什么活动吗/可以告诉我你们这里都有什么活动啊/有促销吗/促销活动有吗/有没有促销啊/最近有什么活动没有/你们有没有活动/有没有活动介绍一下/促销活动有吗/告诉我有没有什么活动/那你说说有没有优惠活动/最近有什么活动/有什么活动/有什么优惠/优惠信息讲一下/我想了解一下你们店的优惠/你们店有什么优惠/你们店有什么活动/你们店最近有什么活动/你们店的活动/你们店有什么特价/你们店的特价商品/你们店的促销/你们店的促销信息/你们店的促销活动/有什么优惠活动呢/你知道都有什么优惠吗/优惠都有什么你知道吗/你能告诉我都有什么优惠吗/优惠都有什么啊/你知道都有哪些优惠吗/有哪些优惠信息/优惠信息有什么/都有什么优惠信息啊/能给我介绍下你们的活动吗/介绍下你们的活动吧/给我介绍一下你们的活动/有什么活动给我介绍一下/给我介绍一下你们的活动吧/有什么活动给我介绍一下/你们都有什么活动啊/能给我说一下你们的活动吗/把你们的活动给我说一下吧/给我说一下你们的活动/把你们的活动给我说说吧/说说你们都有什么活动啊/给我介绍一下你们都有什么活动/</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3523" sId="9">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>你们有活动吗？/买机器人便宜么？/买扫地机器人便宜么？/买空气净化机器人便宜么？/买擦窗机器人便宜么？/买擦窗机器人有优惠么？/买扫地机器人有优惠么？/买净化空气的机器人便宜么？/卖扫地机器人有什么优惠吗？/买擦窗机器人有什么优惠吗？/买空气净化机器人有什么优惠吗？/买扫地机器人有优惠吗？/买擦窗机器人有优惠吗？/买空气净化机器人有优惠吗？/有啥活动/你们这有什么活动/有什么优惠活动啊/有优惠活动吗/有没有优惠活动啊/有没有优惠活动呀/有什么活动啊/有活动吗/有没有活动啊/有没有活动呀/你们都有啥活动啊/你们这里都有啥活动/你能告诉我你们这里都有什么活动吗/可以跟我说说你们这里都有什么活动吗/可以告诉我你们这里都有什么活动啊/有促销吗/促销活动有吗/有没有促销啊/最近有什么活动没有/你们有没有活动/有没有活动介绍一下/促销活动有吗/告诉我有没有什么活动/那你说说有没有优惠活动/最近有什么活动/有什么活动/有什么优惠/优惠信息讲一下/我想了解一下你们店的优惠/你们店有什么优惠/你们店有什么活动/你们店最近有什么活动/你们店的活动/你们店有什么特价/你们店的特价商品/你们店的促销/你们店的促销信息/你们店的促销活动/有什么优惠活动呢/你知道都有什么优惠吗/优惠都有什么你知道吗/你能告诉我都有什么优惠吗/优惠都有什么啊/你知道都有哪些优惠吗/有哪些优惠信息/优惠信息有什么/都有什么优惠信息啊/能给我介绍下你们的活动吗/介绍下你们的活动吧/给我介绍一下你们的活动/有什么活动给我介绍一下/给我介绍一下你们的活动吧/有什么活动给我介绍一下/你们都有什么活动啊/能给我说一下你们的活动吗/把你们的活动给我说一下吧/给我说一下你们的活动/把你们的活动给我说说吧/说说你们都有什么活动啊/给我介绍一下你们都有什么活动/</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <r>
+          <t>你们有活动吗？/买机器人便宜么？/买扫地机器人便宜么？/买空气净化机器人便宜么？/买擦窗机器人便宜么？/买擦窗机器人有优惠么？/买扫地机器人有优惠么？/买净化空气的机器人便宜么？/卖扫地机器人有什么优惠吗？/买擦窗机器人有什么优惠吗？/买空气净化机器人有什么优惠吗？/买扫地机器人有优惠吗？/买擦窗机器人有优惠吗？/买空气净化机器人有优惠吗？</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/有啥活动/你们这有什么活动/有什么优惠活动啊/有优惠活动吗/有没有优惠活动啊/有没有优惠活动呀/有什么活动啊/有活动吗/有没有活动啊/有没有活动呀/你们都有啥活动啊/你们这里都有啥活动/你能告诉我你们这里都有什么活动吗/可以跟我说说你们这里都有什么活动吗/可以告诉我你们这里都有什么活动啊/有促销吗/促销活动有吗/有没有促销啊/最近有什么活动没有/你们有没有活动/有没有活动介绍一下/促销活动有吗/告诉我有没有什么活动/那你说说有没有优惠活动/最近有什么活动/有什么活动/有什么优惠/优惠信息讲一下/我想了解一下你们店的优惠/你们店有什么优惠/你们店有什么活动/你们店最近有什么活动/你们店的活动/你们店有什么特价/你们店的特价商品/你们店的促销/你们店的促销信息/你们店的促销活动/有什么优惠活动呢/你知道都有什么优惠吗/优惠都有什么你知道吗/你能告诉我都有什么优惠吗/优惠都有什么啊/你知道都有哪些优惠吗/有哪些优惠信息/优惠信息有什么/都有什么优惠信息啊/能给我介绍下你们的活动吗/介绍下你们的活动吧/给我介绍一下你们的活动/有什么活动给我介绍一下/给我介绍一下你们的活动吧/有什么活动给我介绍一下/你们都有什么活动啊/能给我说一下你们的活动吗/把你们的活动给我说一下吧/给我说一下你们的活动/把你们的活动给我说说吧/说说你们都有什么活动啊/给我介绍一下你们都有什么活动/</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" action="delete"/>
   <rcv guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" action="add"/>
 </revisions>
@@ -32078,11 +32565,12 @@
 </file>
 
 <file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="5">
   <userInfo guid="{6D9F5AE3-D12B-4167-924E-9AD1BDC9A3C4}" name="fang.gao(高芳)" id="-240646404" dateTime="2017-11-03T11:06:54"/>
   <userInfo guid="{A3F7F8FE-1F87-4D8A-B045-3606F33F1C85}" name="lulu.wang(王路路)" id="-627624903" dateTime="2017-11-14T10:08:27"/>
   <userInfo guid="{E35F7245-1542-48C8-9E8B-D0D62B498DE0}" name="fang.gao(高芳)" id="-240639169" dateTime="2017-11-14T16:28:51"/>
   <userInfo guid="{AE576CB2-B586-4D7F-A06F-DEEF4FE26B71}" name="lulu.wang(王路路)" id="-627597233" dateTime="2017-11-24T13:19:22"/>
+  <userInfo guid="{8827AB8F-A12D-42A1-B465-46B27985FECE}" name="lulu.wang(王路路)" id="-627599517" dateTime="2017-12-13T11:19:25"/>
 </users>
 </file>
 
@@ -32390,36 +32878,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
@@ -32428,16 +32916,16 @@
     </row>
     <row r="3" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
         <v>84</v>
@@ -32448,16 +32936,16 @@
     </row>
     <row r="4" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
         <v>85</v>
@@ -32468,16 +32956,16 @@
     </row>
     <row r="5" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="E5" t="s">
         <v>86</v>
@@ -32488,16 +32976,16 @@
     </row>
     <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
@@ -32505,16 +32993,16 @@
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>83</v>
@@ -32522,16 +33010,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="B8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="E8" t="s">
         <v>85</v>
@@ -32539,16 +33027,16 @@
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>160</v>
@@ -32556,16 +33044,16 @@
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>160</v>
@@ -32573,16 +33061,16 @@
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>160</v>
@@ -32590,16 +33078,16 @@
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="D12" s="71" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="E12" s="72" t="s">
         <v>83</v>
@@ -32640,23 +33128,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="B5" sqref="B5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
     <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
       <selection activeCell="B8" sqref="B8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="B4">
       <selection activeCell="C18" sqref="C18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A9">
       <selection activeCell="B25" sqref="B25"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -32677,7 +33165,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -32689,7 +33177,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -32709,58 +33197,58 @@
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>192</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="B4" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="B3" sqref="B3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D3" sqref="D3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -32786,121 +33274,121 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" t="s">
         <v>252</v>
       </c>
-      <c r="B3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" t="s">
-        <v>258</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>83</v>
@@ -32908,16 +33396,16 @@
     </row>
     <row r="8" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>85</v>
@@ -32925,16 +33413,16 @@
     </row>
     <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>84</v>
@@ -32942,16 +33430,16 @@
     </row>
     <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>84</v>
@@ -32959,7 +33447,7 @@
     </row>
     <row r="11" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B11" t="s">
         <v>106</v>
@@ -32968,7 +33456,7 @@
         <v>120</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>85</v>
@@ -32976,16 +33464,16 @@
     </row>
     <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>85</v>
@@ -32993,16 +33481,16 @@
     </row>
     <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>85</v>
@@ -33010,7 +33498,7 @@
     </row>
     <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s">
         <v>114</v>
@@ -33019,7 +33507,7 @@
         <v>120</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>85</v>
@@ -33027,23 +33515,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="B3" sqref="B3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
     <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
       <selection activeCell="D10" sqref="D8:D10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="C1">
       <selection activeCell="D1" sqref="D1:D1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A13">
       <selection activeCell="D10" sqref="D8:D10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="B3" sqref="B3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -33076,36 +33564,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
@@ -33113,16 +33601,16 @@
     </row>
     <row r="3" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="E3" t="s">
         <v>84</v>
@@ -33130,16 +33618,16 @@
     </row>
     <row r="4" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="B4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="E4" t="s">
         <v>85</v>
@@ -33147,16 +33635,16 @@
     </row>
     <row r="5" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E5" t="s">
         <v>86</v>
@@ -33164,10 +33652,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D2" sqref="D2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="C1">
       <selection activeCell="C22" sqref="C21:C22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33178,6 +33662,10 @@
     </customSheetView>
     <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A4">
       <selection activeCell="C6" sqref="A6:XFD47"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -33195,8 +33683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33209,7 +33697,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>0</v>
@@ -33224,119 +33712,119 @@
         <v>2</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="50" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="50" customFormat="1" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="50" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>138</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>138</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>86</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>139</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>83</v>
@@ -33345,16 +33833,16 @@
     </row>
     <row r="8" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>140</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>86</v>
@@ -33363,16 +33851,16 @@
     </row>
     <row r="9" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>83</v>
@@ -33381,16 +33869,16 @@
     </row>
     <row r="10" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>142</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>84</v>
@@ -33399,16 +33887,16 @@
     </row>
     <row r="11" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>143</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>85</v>
@@ -33417,7 +33905,7 @@
     </row>
     <row r="12" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>30</v>
@@ -33426,7 +33914,7 @@
         <v>143</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>86</v>
@@ -33435,7 +33923,7 @@
     </row>
     <row r="13" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A13" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>33</v>
@@ -33444,7 +33932,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>85</v>
@@ -33453,16 +33941,16 @@
     </row>
     <row r="14" spans="1:6" ht="159" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>144</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>83</v>
@@ -33471,7 +33959,7 @@
     </row>
     <row r="15" spans="1:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>31</v>
@@ -33480,7 +33968,7 @@
         <v>145</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>84</v>
@@ -33489,32 +33977,32 @@
     </row>
     <row r="16" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>146</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A17" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>85</v>
@@ -33523,7 +34011,7 @@
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>32</v>
@@ -33532,7 +34020,7 @@
         <v>126</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>83</v>
@@ -33541,7 +34029,7 @@
     </row>
     <row r="19" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A19" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>34</v>
@@ -33550,7 +34038,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>83</v>
@@ -33559,7 +34047,7 @@
     </row>
     <row r="20" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A20" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>36</v>
@@ -33568,7 +34056,7 @@
         <v>147</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>84</v>
@@ -33577,16 +34065,16 @@
     </row>
     <row r="21" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>148</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>85</v>
@@ -33595,7 +34083,7 @@
     </row>
     <row r="22" spans="1:6" s="36" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B22" s="56" t="s">
         <v>82</v>
@@ -33604,7 +34092,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>85</v>
@@ -33615,16 +34103,16 @@
     </row>
     <row r="23" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A23" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>149</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>83</v>
@@ -33635,16 +34123,16 @@
     </row>
     <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>143</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>84</v>
@@ -33655,7 +34143,7 @@
     </row>
     <row r="25" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>116</v>
@@ -33664,7 +34152,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>86</v>
@@ -33673,7 +34161,7 @@
     </row>
     <row r="26" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A26" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>40</v>
@@ -33682,7 +34170,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>85</v>
@@ -33691,16 +34179,16 @@
     </row>
     <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A27" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>83</v>
@@ -33709,16 +34197,16 @@
     </row>
     <row r="28" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>151</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>84</v>
@@ -33727,16 +34215,16 @@
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A29" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C29" s="51" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>83</v>
@@ -33747,16 +34235,16 @@
     </row>
     <row r="30" spans="1:6" s="13" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>85</v>
@@ -33767,16 +34255,16 @@
     </row>
     <row r="31" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A31" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>84</v>
@@ -33785,7 +34273,7 @@
     </row>
     <row r="32" spans="1:6" s="38" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A32" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B32" s="40" t="s">
         <v>5</v>
@@ -33794,7 +34282,7 @@
         <v>57</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E32" s="34" t="s">
         <v>86</v>
@@ -33805,7 +34293,7 @@
     </row>
     <row r="33" spans="1:6" s="15" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>6</v>
@@ -33814,7 +34302,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>83</v>
@@ -33823,16 +34311,16 @@
     </row>
     <row r="34" spans="1:6" s="15" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A34" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>86</v>
@@ -33841,7 +34329,7 @@
     </row>
     <row r="35" spans="1:6" s="38" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A35" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B35" s="40" t="s">
         <v>7</v>
@@ -33850,7 +34338,7 @@
         <v>45</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E35" s="34" t="s">
         <v>86</v>
@@ -33861,7 +34349,7 @@
     </row>
     <row r="36" spans="1:6" s="15" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>8</v>
@@ -33870,7 +34358,7 @@
         <v>58</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>83</v>
@@ -33881,16 +34369,16 @@
     </row>
     <row r="37" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>86</v>
@@ -33899,7 +34387,7 @@
     </row>
     <row r="38" spans="1:6" s="15" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>9</v>
@@ -33908,7 +34396,7 @@
         <v>70</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>85</v>
@@ -33917,16 +34405,16 @@
     </row>
     <row r="39" spans="1:6" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>83</v>
@@ -33935,16 +34423,16 @@
     </row>
     <row r="40" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A40" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>84</v>
@@ -33953,10 +34441,10 @@
     </row>
     <row r="41" spans="1:6" s="38" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A41" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>59</v>
@@ -33973,16 +34461,16 @@
     </row>
     <row r="42" spans="1:6" s="38" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E42" s="34" t="s">
         <v>86</v>
@@ -33993,16 +34481,16 @@
     </row>
     <row r="43" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A43" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>83</v>
@@ -34011,16 +34499,16 @@
     </row>
     <row r="44" spans="1:6" s="15" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A44" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C44" s="51" t="s">
         <v>67</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>84</v>
@@ -34029,16 +34517,16 @@
     </row>
     <row r="45" spans="1:6" s="15" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>85</v>
@@ -34047,7 +34535,7 @@
     </row>
     <row r="46" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A46" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>11</v>
@@ -34056,7 +34544,7 @@
         <v>47</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>83</v>
@@ -34065,16 +34553,16 @@
     </row>
     <row r="47" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A47" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>85</v>
@@ -34083,16 +34571,16 @@
     </row>
     <row r="48" spans="1:6" s="15" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>86</v>
@@ -34101,7 +34589,7 @@
     </row>
     <row r="49" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A49" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>12</v>
@@ -34110,7 +34598,7 @@
         <v>62</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>84</v>
@@ -34119,16 +34607,16 @@
     </row>
     <row r="50" spans="1:6" s="15" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>83</v>
@@ -34137,16 +34625,16 @@
     </row>
     <row r="51" spans="1:6" s="15" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>86</v>
@@ -34155,7 +34643,7 @@
     </row>
     <row r="52" spans="1:6" s="15" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>73</v>
@@ -34173,7 +34661,7 @@
     </row>
     <row r="53" spans="1:6" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A53" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>13</v>
@@ -34182,7 +34670,7 @@
         <v>54</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>83</v>
@@ -34191,16 +34679,16 @@
     </row>
     <row r="54" spans="1:6" s="15" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>85</v>
@@ -34209,7 +34697,7 @@
     </row>
     <row r="55" spans="1:6" s="15" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>14</v>
@@ -34218,7 +34706,7 @@
         <v>64</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>86</v>
@@ -34227,16 +34715,16 @@
     </row>
     <row r="56" spans="1:6" s="15" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A56" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>84</v>
@@ -34245,16 +34733,16 @@
     </row>
     <row r="57" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A57" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>83</v>
@@ -34263,16 +34751,16 @@
     </row>
     <row r="58" spans="1:6" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>85</v>
@@ -34281,7 +34769,7 @@
     </row>
     <row r="59" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A59" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>15</v>
@@ -34290,7 +34778,7 @@
         <v>66</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>86</v>
@@ -34299,16 +34787,16 @@
     </row>
     <row r="60" spans="1:6" s="38" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A60" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C60" s="41" t="s">
         <v>55</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E60" s="34" t="s">
         <v>85</v>
@@ -34317,16 +34805,16 @@
     </row>
     <row r="61" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A61" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>85</v>
@@ -34335,16 +34823,16 @@
     </row>
     <row r="62" spans="1:6" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>86</v>
@@ -34353,7 +34841,7 @@
     </row>
     <row r="63" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A63" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>16</v>
@@ -34362,7 +34850,7 @@
         <v>52</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>83</v>
@@ -34371,16 +34859,16 @@
     </row>
     <row r="64" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A64" s="49" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>85</v>
@@ -34389,16 +34877,16 @@
     </row>
     <row r="65" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A65" s="49" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>84</v>
@@ -34407,16 +34895,16 @@
     </row>
     <row r="66" spans="1:6" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>404</v>
-      </c>
       <c r="C66" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>86</v>
@@ -34425,16 +34913,16 @@
     </row>
     <row r="67" spans="1:6" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="49" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>86</v>
@@ -34443,16 +34931,16 @@
     </row>
     <row r="68" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A68" s="49" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E68" s="34" t="s">
         <v>83</v>
@@ -34461,7 +34949,7 @@
     </row>
     <row r="69" spans="1:6" s="38" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A69" s="49" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B69" s="40" t="s">
         <v>78</v>
@@ -34470,7 +34958,7 @@
         <v>79</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E69" s="34" t="s">
         <v>84</v>
@@ -34479,16 +34967,16 @@
     </row>
     <row r="70" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A70" s="49" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D70" s="34" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E70" s="34" t="s">
         <v>85</v>
@@ -34497,16 +34985,16 @@
     </row>
     <row r="71" spans="1:6" s="38" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A71" s="49" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E71" s="34" t="s">
         <v>83</v>
@@ -34515,16 +35003,16 @@
     </row>
     <row r="72" spans="1:6" s="38" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A72" s="49" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D72" s="34" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E72" s="34" t="s">
         <v>83</v>
@@ -34533,16 +35021,16 @@
     </row>
     <row r="73" spans="1:6" s="38" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A73" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D73" s="34" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E73" s="34" t="s">
         <v>86</v>
@@ -34551,14 +35039,14 @@
     </row>
     <row r="74" spans="1:6" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A74" s="49" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C74" s="51"/>
       <c r="D74" s="11" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>84</v>
@@ -34572,7 +35060,7 @@
     </row>
     <row r="76" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>107</v>
@@ -34581,7 +35069,7 @@
         <v>152</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>87</v>
@@ -34589,7 +35077,7 @@
     </row>
     <row r="77" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>108</v>
@@ -34598,7 +35086,7 @@
         <v>153</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E77" t="s">
         <v>115</v>
@@ -34606,16 +35094,16 @@
     </row>
     <row r="78" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>87</v>
@@ -34623,7 +35111,7 @@
     </row>
     <row r="79" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>110</v>
@@ -34632,24 +35120,24 @@
         <v>48</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E79" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="49" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>154</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E80" t="s">
         <v>115</v>
@@ -34657,7 +35145,7 @@
     </row>
     <row r="81" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A81" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>111</v>
@@ -34666,7 +35154,7 @@
         <v>155</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E81" t="s">
         <v>115</v>
@@ -34674,16 +35162,16 @@
     </row>
     <row r="82" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E82" t="s">
         <v>87</v>
@@ -34691,7 +35179,7 @@
     </row>
     <row r="83" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>112</v>
@@ -34700,7 +35188,7 @@
         <v>152</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E83" t="s">
         <v>87</v>
@@ -34708,36 +35196,36 @@
     </row>
     <row r="84" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="49" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E84" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A85" s="49" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D85" s="39" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F85" s="38" t="s">
         <v>165</v>
@@ -34748,16 +35236,16 @@
     </row>
     <row r="87" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="49" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>86</v>
@@ -34765,16 +35253,16 @@
     </row>
     <row r="88" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A88" s="49" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>85</v>
@@ -34782,16 +35270,16 @@
     </row>
     <row r="89" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="49" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>83</v>
@@ -34799,16 +35287,11 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B90" s="6" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" topLeftCell="A70">
-      <selection activeCell="C83" sqref="C83"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
     <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A82">
       <selection activeCell="B91" sqref="B91:B92"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34816,11 +35299,16 @@
     <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="A52">
       <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A82">
       <selection activeCell="A89" sqref="A89:XFD89"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -34833,8 +35321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -34847,7 +35335,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>0</v>
@@ -34867,73 +35355,73 @@
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>193</v>
+        <v>675</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="49" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="193.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>85</v>
@@ -34942,16 +35430,16 @@
     </row>
     <row r="6" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>86</v>
@@ -34960,16 +35448,16 @@
     </row>
     <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>83</v>
@@ -34978,16 +35466,16 @@
     </row>
     <row r="8" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>86</v>
@@ -34996,16 +35484,16 @@
     </row>
     <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>83</v>
@@ -35014,16 +35502,16 @@
     </row>
     <row r="10" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="49" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>84</v>
@@ -35032,16 +35520,16 @@
     </row>
     <row r="11" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="49" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>85</v>
@@ -35052,16 +35540,16 @@
     </row>
     <row r="12" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>86</v>
@@ -35070,16 +35558,16 @@
     </row>
     <row r="13" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>489</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>85</v>
@@ -35088,16 +35576,16 @@
     </row>
     <row r="14" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="49" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>83</v>
@@ -35108,16 +35596,16 @@
     </row>
     <row r="15" spans="1:6" s="38" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>84</v>
@@ -35128,16 +35616,16 @@
     </row>
     <row r="16" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>85</v>
@@ -35146,16 +35634,16 @@
     </row>
     <row r="17" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="49" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>85</v>
@@ -35164,16 +35652,16 @@
     </row>
     <row r="18" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="49" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>83</v>
@@ -35182,16 +35670,16 @@
     </row>
     <row r="19" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="49" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>83</v>
@@ -35200,16 +35688,16 @@
     </row>
     <row r="20" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="49" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>84</v>
@@ -35218,16 +35706,16 @@
     </row>
     <row r="21" spans="1:6" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>85</v>
@@ -35236,16 +35724,16 @@
     </row>
     <row r="22" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>85</v>
@@ -35254,16 +35742,16 @@
     </row>
     <row r="23" spans="1:6" s="10" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>83</v>
@@ -35272,16 +35760,16 @@
     </row>
     <row r="24" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="49" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>84</v>
@@ -35290,16 +35778,16 @@
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="49" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>86</v>
@@ -35308,16 +35796,16 @@
     </row>
     <row r="26" spans="1:6" s="13" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="49" t="s">
+        <v>526</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>537</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>85</v>
@@ -35326,16 +35814,16 @@
     </row>
     <row r="27" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="49" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>83</v>
@@ -35344,16 +35832,16 @@
     </row>
     <row r="28" spans="1:6" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="49" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>84</v>
@@ -35362,14 +35850,14 @@
     </row>
     <row r="29" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A29" s="49" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="34" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="E29" s="34" t="s">
         <v>83</v>
@@ -35378,14 +35866,14 @@
     </row>
     <row r="30" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A30" s="49" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="34" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E30" s="34" t="s">
         <v>85</v>
@@ -35394,14 +35882,14 @@
     </row>
     <row r="31" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="49" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="34" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E31" s="34" t="s">
         <v>84</v>
@@ -35418,7 +35906,7 @@
     </row>
     <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="49" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>117</v>
@@ -35427,7 +35915,7 @@
         <v>118</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>85</v>
@@ -35435,16 +35923,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="49" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C35" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D35" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>85</v>
@@ -35452,67 +35940,67 @@
     </row>
     <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C36" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C37" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="49" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="49" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>122</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>84</v>
@@ -35524,16 +36012,16 @@
     </row>
     <row r="41" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A41" s="49" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>85</v>
@@ -35541,16 +36029,16 @@
     </row>
     <row r="42" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A42" s="49" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>85</v>
@@ -35558,16 +36046,16 @@
     </row>
     <row r="43" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="49" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="C43" t="s">
         <v>136</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>575</v>
+        <v>676</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>119</v>
@@ -35575,27 +36063,23 @@
     </row>
     <row r="44" spans="1:5" s="51" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="49" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B44" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>677</v>
+      </c>
+      <c r="E44" s="51" t="s">
         <v>180</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" topLeftCell="A34">
-      <selection activeCell="B43" sqref="B43"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A43">
       <selection activeCell="C37" sqref="C35:C37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35609,6 +36093,10 @@
       <selection activeCell="C37" sqref="C35:C37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D3" sqref="D3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -35625,8 +36113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -35638,10 +36126,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -35658,33 +36146,33 @@
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>678</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="38" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>85</v>
@@ -35695,16 +36183,16 @@
     </row>
     <row r="4" spans="1:6" s="38" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="68" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>86</v>
@@ -35715,16 +36203,16 @@
     </row>
     <row r="5" spans="1:6" s="38" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="68" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>129</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>83</v>
@@ -35735,16 +36223,16 @@
     </row>
     <row r="6" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C6" s="44" t="s">
         <v>137</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>86</v>
@@ -35755,16 +36243,16 @@
     </row>
     <row r="7" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>83</v>
@@ -35772,16 +36260,16 @@
     </row>
     <row r="8" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>84</v>
@@ -35792,16 +36280,16 @@
     </row>
     <row r="9" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>85</v>
@@ -35814,16 +36302,16 @@
     </row>
     <row r="11" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A11" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>85</v>
@@ -35831,16 +36319,16 @@
     </row>
     <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>83</v>
@@ -35851,16 +36339,16 @@
     </row>
     <row r="13" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A13" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>130</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>83</v>
@@ -35871,16 +36359,16 @@
     </row>
     <row r="14" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>121</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>84</v>
@@ -35888,16 +36376,16 @@
     </row>
     <row r="15" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>85</v>
@@ -35905,16 +36393,16 @@
     </row>
     <row r="16" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>95</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>86</v>
@@ -35922,16 +36410,16 @@
     </row>
     <row r="17" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A17" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>159</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>85</v>
@@ -35939,16 +36427,16 @@
     </row>
     <row r="18" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A18" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>96</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>83</v>
@@ -35956,16 +36444,16 @@
     </row>
     <row r="19" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>86</v>
@@ -35973,16 +36461,16 @@
     </row>
     <row r="20" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>98</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>84</v>
@@ -35990,16 +36478,16 @@
     </row>
     <row r="21" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A21" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>99</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>85</v>
@@ -36007,16 +36495,16 @@
     </row>
     <row r="22" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>131</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>86</v>
@@ -36024,16 +36512,16 @@
     </row>
     <row r="23" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>131</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>85</v>
@@ -36041,30 +36529,30 @@
     </row>
     <row r="24" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A24" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>100</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>85</v>
@@ -36072,16 +36560,16 @@
     </row>
     <row r="26" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A26" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>158</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>83</v>
@@ -36089,16 +36577,16 @@
     </row>
     <row r="27" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>101</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>86</v>
@@ -36106,16 +36594,16 @@
     </row>
     <row r="28" spans="1:6" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A28" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>157</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>83</v>
@@ -36126,16 +36614,16 @@
     </row>
     <row r="29" spans="1:6" s="13" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A29" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>85</v>
@@ -36143,36 +36631,36 @@
     </row>
     <row r="30" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A30" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>86</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>84</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -36180,7 +36668,7 @@
     </row>
     <row r="33" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A33" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>132</v>
@@ -36189,7 +36677,7 @@
         <v>134</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>83</v>
@@ -36197,16 +36685,16 @@
     </row>
     <row r="34" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A34" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C34" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>641</v>
+        <v>679</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>85</v>
@@ -36214,16 +36702,16 @@
     </row>
     <row r="35" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="49" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="C35" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>86</v>
@@ -36231,13 +36719,13 @@
     </row>
     <row r="36" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>173</v>
@@ -36246,46 +36734,42 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B37" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="51" t="s">
-        <v>176</v>
-      </c>
       <c r="D37" s="51" t="s">
-        <v>177</v>
+        <v>680</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="49" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>174</v>
+        <v>681</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" topLeftCell="A34">
-      <selection activeCell="B36" sqref="B36"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A32">
       <selection activeCell="C34" sqref="C34"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36296,6 +36780,10 @@
     </customSheetView>
     <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A32">
       <selection activeCell="B44" sqref="B44"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D3" sqref="D3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -36313,8 +36801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36325,10 +36813,6 @@
   </cols>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D13" sqref="D13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36339,6 +36823,10 @@
     </customSheetView>
     <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="B11" sqref="B11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D13" sqref="D13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -36364,7 +36852,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -36384,7 +36872,7 @@
     </row>
     <row r="2" spans="1:6" s="38" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>17</v>
@@ -36404,7 +36892,7 @@
     </row>
     <row r="3" spans="1:6" s="38" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="38" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>20</v>
@@ -36424,7 +36912,7 @@
     </row>
     <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="38" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -36441,7 +36929,7 @@
     </row>
     <row r="5" spans="1:6" s="38" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="38" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>23</v>
@@ -36461,7 +36949,7 @@
     </row>
     <row r="6" spans="1:6" s="38" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="38" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>24</v>
@@ -36481,7 +36969,7 @@
     </row>
     <row r="7" spans="1:6" s="38" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="38" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>25</v>
@@ -36498,10 +36986,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="C9" sqref="C9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
       <selection activeCell="B16" sqref="B16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36516,6 +37000,10 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="C9" sqref="C9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36526,21 +37014,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="202" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="202" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.875" customWidth="1"/>
-    <col min="4" max="4" width="57.875" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
+    <col min="4" max="4" width="90.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -36558,9 +37046,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>80</v>
@@ -36577,10 +37065,6 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection sqref="A1:XFD1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
       <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36593,8 +37077,14 @@
       <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+    </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/update_data/data/ecovacs/qa/问答整理.xlsx
+++ b/update_data/data/ecovacs/qa/问答整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="105" windowWidth="14430" windowHeight="12690" activeTab="8"/>
+    <workbookView xWindow="8250" yWindow="105" windowWidth="14430" windowHeight="12690" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="门店" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="9"/>
+    <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" activeSheetId="1"/>
+    <customWorkbookView name="颜倩 - 个人视图" guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" activeSheetId="6"/>
     <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1675" windowHeight="837" activeSheetId="1"/>
-    <customWorkbookView name="颜倩 - 个人视图" guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" activeSheetId="6"/>
-    <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" activeSheetId="1"/>
-    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="9"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -681,10 +681,6 @@
   </si>
   <si>
     <t>你们是哪个品牌的？</t>
-  </si>
-  <si>
-    <t>给我介绍一下科沃斯？/科沃斯/科沃斯怎么样？/你们是科沃斯的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>你们是钟汉良代言的么？</t>
@@ -2896,6 +2892,10 @@
       </rPr>
       <t>/有啥活动/你们这有什么活动/有什么优惠活动啊/有优惠活动吗/有没有优惠活动啊/有没有优惠活动呀/有什么活动啊/有活动吗/有没有活动啊/有没有活动呀/你们都有啥活动啊/你们这里都有啥活动/你能告诉我你们这里都有什么活动吗/可以跟我说说你们这里都有什么活动吗/可以告诉我你们这里都有什么活动啊/有促销吗/促销活动有吗/有没有促销啊/最近有什么活动没有/你们有没有活动/有没有活动介绍一下/促销活动有吗/告诉我有没有什么活动/那你说说有没有优惠活动/最近有什么活动/有什么活动/有什么优惠/优惠信息讲一下/我想了解一下你们店的优惠/你们店有什么优惠/你们店有什么活动/你们店最近有什么活动/你们店的活动/你们店有什么特价/你们店的特价商品/你们店的促销/你们店的促销信息/你们店的促销活动/有什么优惠活动呢/你知道都有什么优惠吗/优惠都有什么你知道吗/你能告诉我都有什么优惠吗/优惠都有什么啊/你知道都有哪些优惠吗/有哪些优惠信息/优惠信息有什么/都有什么优惠信息啊/能给我介绍下你们的活动吗/介绍下你们的活动吧/给我介绍一下你们的活动/有什么活动给我介绍一下/给我介绍一下你们的活动吧/有什么活动给我介绍一下/你们都有什么活动啊/能给我说一下你们的活动吗/把你们的活动给我说一下吧/给我说一下你们的活动/把你们的活动给我说说吧/说说你们都有什么活动啊/给我介绍一下你们都有什么活动/</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给我介绍一下科沃斯？/科沃斯/科沃斯怎么样？/你们是科沃斯的/你是啥牌子的/你哪个牌子的呀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3252,7 +3252,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{8827AB8F-A12D-42A1-B465-46B27985FECE}" diskRevisions="1" revisionId="3523" version="676">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{05F7C8A4-8D1C-4425-B38C-B9B6DA0F5E7E}" diskRevisions="1" revisionId="3524" version="678">
   <header guid="{6D9F5AE3-D12B-4167-924E-9AD1BDC9A3C4}" dateTime="2017-11-03T11:01:41" maxSheetId="10" userName="fang.gao(高芳)" r:id="rId446" minRId="1881" maxRId="1905">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -6340,6 +6340,34 @@
       <sheetId val="10"/>
     </sheetIdMap>
   </header>
+  <header guid="{647C5900-7B1D-489C-B839-13E7E433E158}" dateTime="2017-12-13T15:50:21" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId677" minRId="3524">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{05F7C8A4-8D1C-4425-B38C-B9B6DA0F5E7E}" dateTime="2017-12-13T15:50:30" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId678">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -7614,6 +7642,45 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" action="delete"/>
   <rcv guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3524" sId="8">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>给我介绍一下科沃斯？/科沃斯/科沃斯怎么样？/你们是科沃斯的</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>给我介绍一下科沃斯？/科沃斯/科沃斯怎么样？/你们是科沃斯的/你是啥牌子的/你哪个牌子的呀</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="8" sqref="D2">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="8" sqref="D2">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="8" sqref="D1:D1048576">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
 </revisions>
 </file>
 
@@ -32565,12 +32632,11 @@
 </file>
 
 <file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="5">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
   <userInfo guid="{6D9F5AE3-D12B-4167-924E-9AD1BDC9A3C4}" name="fang.gao(高芳)" id="-240646404" dateTime="2017-11-03T11:06:54"/>
   <userInfo guid="{A3F7F8FE-1F87-4D8A-B045-3606F33F1C85}" name="lulu.wang(王路路)" id="-627624903" dateTime="2017-11-14T10:08:27"/>
   <userInfo guid="{E35F7245-1542-48C8-9E8B-D0D62B498DE0}" name="fang.gao(高芳)" id="-240639169" dateTime="2017-11-14T16:28:51"/>
   <userInfo guid="{AE576CB2-B586-4D7F-A06F-DEEF4FE26B71}" name="lulu.wang(王路路)" id="-627597233" dateTime="2017-11-24T13:19:22"/>
-  <userInfo guid="{8827AB8F-A12D-42A1-B465-46B27985FECE}" name="lulu.wang(王路路)" id="-627599517" dateTime="2017-12-13T11:19:25"/>
 </users>
 </file>
 
@@ -32878,36 +32944,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
         <v>199</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
@@ -32916,16 +32982,16 @@
     </row>
     <row r="3" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
         <v>202</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E3" t="s">
         <v>84</v>
@@ -32936,16 +33002,16 @@
     </row>
     <row r="4" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
         <v>205</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>206</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="E4" t="s">
         <v>85</v>
@@ -32956,16 +33022,16 @@
     </row>
     <row r="5" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="E5" t="s">
         <v>86</v>
@@ -32976,16 +33042,16 @@
     </row>
     <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" t="s">
         <v>212</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
@@ -32993,16 +33059,16 @@
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>83</v>
@@ -33010,16 +33076,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="E8" t="s">
         <v>85</v>
@@ -33027,16 +33093,16 @@
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>160</v>
@@ -33044,16 +33110,16 @@
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>160</v>
@@ -33061,16 +33127,16 @@
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>160</v>
@@ -33078,16 +33144,16 @@
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C12" s="70" t="s">
+        <v>651</v>
+      </c>
+      <c r="D12" s="71" t="s">
         <v>652</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>653</v>
       </c>
       <c r="E12" s="72" t="s">
         <v>83</v>
@@ -33128,23 +33194,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
-      <selection activeCell="B8" sqref="B8"/>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A9">
+      <selection activeCell="B25" sqref="B25"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="B4">
       <selection activeCell="C18" sqref="C18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A9">
-      <selection activeCell="B25" sqref="B25"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+      <selection activeCell="B8" sqref="B8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -33177,7 +33243,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -33197,58 +33263,58 @@
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
         <v>183</v>
       </c>
-      <c r="C2" t="s">
-        <v>184</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
         <v>660</v>
-      </c>
-      <c r="C4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" t="s">
-        <v>661</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
-      <selection activeCell="A2" sqref="A2"/>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D3" sqref="D3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D3" sqref="D3"/>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -33274,121 +33340,121 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
         <v>246</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>247</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="16" t="s">
         <v>249</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" t="s">
         <v>251</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="16" t="s">
         <v>253</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" t="s">
         <v>255</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" t="s">
         <v>259</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="E5" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>263</v>
-      </c>
       <c r="E6" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" t="s">
         <v>264</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="59" t="s">
         <v>265</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>266</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>83</v>
@@ -33396,16 +33462,16 @@
     </row>
     <row r="8" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="D8" s="59" t="s">
         <v>269</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>270</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>85</v>
@@ -33413,16 +33479,16 @@
     </row>
     <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" t="s">
         <v>271</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>84</v>
@@ -33430,16 +33496,16 @@
     </row>
     <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="62" t="s">
         <v>237</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>238</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>84</v>
@@ -33447,7 +33513,7 @@
     </row>
     <row r="11" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
         <v>106</v>
@@ -33456,7 +33522,7 @@
         <v>120</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>85</v>
@@ -33464,16 +33530,16 @@
     </row>
     <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" t="s">
         <v>275</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>276</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="62" t="s">
         <v>277</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>278</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>85</v>
@@ -33481,16 +33547,16 @@
     </row>
     <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="62" t="s">
         <v>279</v>
-      </c>
-      <c r="C13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>280</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>85</v>
@@ -33498,7 +33564,7 @@
     </row>
     <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B14" t="s">
         <v>114</v>
@@ -33507,7 +33573,7 @@
         <v>120</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>85</v>
@@ -33515,23 +33581,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="B3" sqref="B3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A13">
       <selection activeCell="D10" sqref="D8:D10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="C1">
       <selection activeCell="D1" sqref="D1:D1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A13">
-      <selection activeCell="D10" sqref="D8:D10"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="B3" sqref="B3"/>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+      <selection activeCell="D10" sqref="D8:D10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -33564,36 +33630,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" t="s">
         <v>282</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>283</v>
       </c>
-      <c r="C2" t="s">
-        <v>284</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
@@ -33601,16 +33667,16 @@
     </row>
     <row r="3" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" t="s">
         <v>285</v>
       </c>
-      <c r="C3" t="s">
-        <v>286</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E3" t="s">
         <v>84</v>
@@ -33618,16 +33684,16 @@
     </row>
     <row r="4" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="E4" t="s">
         <v>85</v>
@@ -33635,16 +33701,16 @@
     </row>
     <row r="5" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="E5" t="s">
         <v>86</v>
@@ -33652,20 +33718,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="C1">
-      <selection activeCell="C22" sqref="C21:C22"/>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A4">
+      <selection activeCell="C6" sqref="A6:XFD47"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}">
       <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A4">
-      <selection activeCell="C6" sqref="A6:XFD47"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D2" sqref="D2"/>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="C1">
+      <selection activeCell="C22" sqref="C21:C22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -33697,7 +33763,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>0</v>
@@ -33712,119 +33778,119 @@
         <v>2</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="50" customFormat="1" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="51" t="s">
         <v>642</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="D2" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>643</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>674</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>644</v>
       </c>
       <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>138</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>138</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="D6" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>86</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>139</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>83</v>
@@ -33833,16 +33899,16 @@
     </row>
     <row r="8" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>140</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>86</v>
@@ -33851,16 +33917,16 @@
     </row>
     <row r="9" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>83</v>
@@ -33869,16 +33935,16 @@
     </row>
     <row r="10" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>142</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>84</v>
@@ -33887,16 +33953,16 @@
     </row>
     <row r="11" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>143</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>85</v>
@@ -33905,7 +33971,7 @@
     </row>
     <row r="12" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>30</v>
@@ -33914,7 +33980,7 @@
         <v>143</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>86</v>
@@ -33923,7 +33989,7 @@
     </row>
     <row r="13" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A13" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>33</v>
@@ -33932,7 +33998,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>85</v>
@@ -33941,16 +34007,16 @@
     </row>
     <row r="14" spans="1:6" ht="159" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>144</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>83</v>
@@ -33959,7 +34025,7 @@
     </row>
     <row r="15" spans="1:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>31</v>
@@ -33968,7 +34034,7 @@
         <v>145</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>84</v>
@@ -33977,32 +34043,32 @@
     </row>
     <row r="16" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>146</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A17" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>85</v>
@@ -34011,7 +34077,7 @@
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>32</v>
@@ -34020,7 +34086,7 @@
         <v>126</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>83</v>
@@ -34029,7 +34095,7 @@
     </row>
     <row r="19" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A19" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>34</v>
@@ -34038,7 +34104,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>83</v>
@@ -34047,7 +34113,7 @@
     </row>
     <row r="20" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A20" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>36</v>
@@ -34056,7 +34122,7 @@
         <v>147</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>84</v>
@@ -34065,16 +34131,16 @@
     </row>
     <row r="21" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>148</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>85</v>
@@ -34083,7 +34149,7 @@
     </row>
     <row r="22" spans="1:6" s="36" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B22" s="56" t="s">
         <v>82</v>
@@ -34092,58 +34158,58 @@
         <v>45</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A23" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>149</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>143</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>116</v>
@@ -34152,7 +34218,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>86</v>
@@ -34161,7 +34227,7 @@
     </row>
     <row r="26" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A26" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>40</v>
@@ -34170,7 +34236,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>85</v>
@@ -34179,16 +34245,16 @@
     </row>
     <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A27" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>83</v>
@@ -34197,16 +34263,16 @@
     </row>
     <row r="28" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>151</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>84</v>
@@ -34215,56 +34281,56 @@
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A29" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C29" s="51" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>83</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="13" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C30" s="54" t="s">
         <v>338</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="D30" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A31" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>84</v>
@@ -34273,7 +34339,7 @@
     </row>
     <row r="32" spans="1:6" s="38" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A32" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B32" s="40" t="s">
         <v>5</v>
@@ -34282,18 +34348,18 @@
         <v>57</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E32" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="15" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>6</v>
@@ -34302,7 +34368,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>83</v>
@@ -34311,16 +34377,16 @@
     </row>
     <row r="34" spans="1:6" s="15" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A34" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>86</v>
@@ -34329,7 +34395,7 @@
     </row>
     <row r="35" spans="1:6" s="38" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A35" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B35" s="40" t="s">
         <v>7</v>
@@ -34338,18 +34404,18 @@
         <v>45</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E35" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="15" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>8</v>
@@ -34358,27 +34424,27 @@
         <v>58</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>86</v>
@@ -34387,7 +34453,7 @@
     </row>
     <row r="38" spans="1:6" s="15" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>9</v>
@@ -34396,7 +34462,7 @@
         <v>70</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>85</v>
@@ -34405,16 +34471,16 @@
     </row>
     <row r="39" spans="1:6" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>83</v>
@@ -34423,16 +34489,16 @@
     </row>
     <row r="40" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A40" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>84</v>
@@ -34441,10 +34507,10 @@
     </row>
     <row r="41" spans="1:6" s="38" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A41" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>59</v>
@@ -34456,41 +34522,41 @@
         <v>83</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="38" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E42" s="34" t="s">
         <v>86</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A43" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>83</v>
@@ -34499,16 +34565,16 @@
     </row>
     <row r="44" spans="1:6" s="15" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A44" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C44" s="51" t="s">
         <v>67</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>84</v>
@@ -34517,16 +34583,16 @@
     </row>
     <row r="45" spans="1:6" s="15" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>85</v>
@@ -34535,7 +34601,7 @@
     </row>
     <row r="46" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A46" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>11</v>
@@ -34544,7 +34610,7 @@
         <v>47</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>83</v>
@@ -34553,16 +34619,16 @@
     </row>
     <row r="47" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A47" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>85</v>
@@ -34571,16 +34637,16 @@
     </row>
     <row r="48" spans="1:6" s="15" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>86</v>
@@ -34589,7 +34655,7 @@
     </row>
     <row r="49" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A49" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>12</v>
@@ -34598,7 +34664,7 @@
         <v>62</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>84</v>
@@ -34607,16 +34673,16 @@
     </row>
     <row r="50" spans="1:6" s="15" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>83</v>
@@ -34625,16 +34691,16 @@
     </row>
     <row r="51" spans="1:6" s="15" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>86</v>
@@ -34643,7 +34709,7 @@
     </row>
     <row r="52" spans="1:6" s="15" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>73</v>
@@ -34661,7 +34727,7 @@
     </row>
     <row r="53" spans="1:6" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A53" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>13</v>
@@ -34670,7 +34736,7 @@
         <v>54</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>83</v>
@@ -34679,16 +34745,16 @@
     </row>
     <row r="54" spans="1:6" s="15" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>85</v>
@@ -34697,7 +34763,7 @@
     </row>
     <row r="55" spans="1:6" s="15" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>14</v>
@@ -34706,7 +34772,7 @@
         <v>64</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>86</v>
@@ -34715,16 +34781,16 @@
     </row>
     <row r="56" spans="1:6" s="15" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A56" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>84</v>
@@ -34733,16 +34799,16 @@
     </row>
     <row r="57" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A57" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>83</v>
@@ -34751,16 +34817,16 @@
     </row>
     <row r="58" spans="1:6" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>85</v>
@@ -34769,7 +34835,7 @@
     </row>
     <row r="59" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A59" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>15</v>
@@ -34778,7 +34844,7 @@
         <v>66</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>86</v>
@@ -34787,16 +34853,16 @@
     </row>
     <row r="60" spans="1:6" s="38" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A60" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C60" s="41" t="s">
         <v>55</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E60" s="34" t="s">
         <v>85</v>
@@ -34805,16 +34871,16 @@
     </row>
     <row r="61" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A61" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>85</v>
@@ -34823,16 +34889,16 @@
     </row>
     <row r="62" spans="1:6" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>86</v>
@@ -34841,7 +34907,7 @@
     </row>
     <row r="63" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A63" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>16</v>
@@ -34850,7 +34916,7 @@
         <v>52</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>83</v>
@@ -34859,16 +34925,16 @@
     </row>
     <row r="64" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A64" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>85</v>
@@ -34877,16 +34943,16 @@
     </row>
     <row r="65" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A65" s="49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>84</v>
@@ -34895,16 +34961,16 @@
     </row>
     <row r="66" spans="1:6" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>86</v>
@@ -34913,16 +34979,16 @@
     </row>
     <row r="67" spans="1:6" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>86</v>
@@ -34931,16 +34997,16 @@
     </row>
     <row r="68" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A68" s="49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B68" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="C68" s="41" t="s">
         <v>403</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="D68" s="34" t="s">
         <v>404</v>
-      </c>
-      <c r="D68" s="34" t="s">
-        <v>405</v>
       </c>
       <c r="E68" s="34" t="s">
         <v>83</v>
@@ -34949,7 +35015,7 @@
     </row>
     <row r="69" spans="1:6" s="38" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A69" s="49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B69" s="40" t="s">
         <v>78</v>
@@ -34958,7 +35024,7 @@
         <v>79</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E69" s="34" t="s">
         <v>84</v>
@@ -34967,16 +35033,16 @@
     </row>
     <row r="70" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A70" s="49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B70" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="C70" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="C70" s="41" t="s">
+      <c r="D70" s="34" t="s">
         <v>408</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>409</v>
       </c>
       <c r="E70" s="34" t="s">
         <v>85</v>
@@ -34985,16 +35051,16 @@
     </row>
     <row r="71" spans="1:6" s="38" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A71" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="B71" s="40" t="s">
         <v>410</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="C71" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="D71" s="34" t="s">
         <v>412</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>413</v>
       </c>
       <c r="E71" s="34" t="s">
         <v>83</v>
@@ -35003,16 +35069,16 @@
     </row>
     <row r="72" spans="1:6" s="38" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A72" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="B72" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="C72" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="C72" s="41" t="s">
+      <c r="D72" s="34" t="s">
         <v>416</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>417</v>
       </c>
       <c r="E72" s="34" t="s">
         <v>83</v>
@@ -35021,16 +35087,16 @@
     </row>
     <row r="73" spans="1:6" s="38" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A73" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B73" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="C73" s="41" t="s">
         <v>418</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="D73" s="34" t="s">
         <v>419</v>
-      </c>
-      <c r="D73" s="34" t="s">
-        <v>420</v>
       </c>
       <c r="E73" s="34" t="s">
         <v>86</v>
@@ -35039,14 +35105,14 @@
     </row>
     <row r="74" spans="1:6" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A74" s="49" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C74" s="51"/>
       <c r="D74" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>84</v>
@@ -35060,7 +35126,7 @@
     </row>
     <row r="76" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>107</v>
@@ -35069,7 +35135,7 @@
         <v>152</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>87</v>
@@ -35077,7 +35143,7 @@
     </row>
     <row r="77" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>108</v>
@@ -35086,7 +35152,7 @@
         <v>153</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E77" t="s">
         <v>115</v>
@@ -35094,16 +35160,16 @@
     </row>
     <row r="78" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>87</v>
@@ -35111,7 +35177,7 @@
     </row>
     <row r="79" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>110</v>
@@ -35120,24 +35186,24 @@
         <v>48</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E79" t="s">
         <v>427</v>
-      </c>
-      <c r="E79" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>154</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E80" t="s">
         <v>115</v>
@@ -35145,7 +35211,7 @@
     </row>
     <row r="81" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A81" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>111</v>
@@ -35154,7 +35220,7 @@
         <v>155</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E81" t="s">
         <v>115</v>
@@ -35162,16 +35228,16 @@
     </row>
     <row r="82" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E82" t="s">
         <v>87</v>
@@ -35179,7 +35245,7 @@
     </row>
     <row r="83" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>112</v>
@@ -35188,7 +35254,7 @@
         <v>152</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E83" t="s">
         <v>87</v>
@@ -35196,39 +35262,39 @@
     </row>
     <row r="84" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E84" t="s">
         <v>436</v>
-      </c>
-      <c r="E84" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A85" s="49" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B85" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="C85" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="C85" s="40" t="s">
+      <c r="D85" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="D85" s="39" t="s">
-        <v>440</v>
-      </c>
       <c r="E85" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -35236,16 +35302,16 @@
     </row>
     <row r="87" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="49" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C87" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>86</v>
@@ -35253,16 +35319,16 @@
     </row>
     <row r="88" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A88" s="49" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B88" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>444</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>85</v>
@@ -35270,16 +35336,16 @@
     </row>
     <row r="89" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="C89" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>446</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>447</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>83</v>
@@ -35287,17 +35353,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B90" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A82">
-      <selection activeCell="B91" sqref="B91:B92"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="A52">
-      <selection activeCell="B4" sqref="B4"/>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -35305,10 +35367,14 @@
       <selection activeCell="A89" sqref="A89:XFD89"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D2" sqref="D2"/>
+    <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="A52">
+      <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A82">
+      <selection activeCell="B91" sqref="B91:B92"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -35335,7 +35401,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>0</v>
@@ -35355,73 +35421,73 @@
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="43" t="s">
         <v>451</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="D3" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="D4" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="193.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="64" t="s">
         <v>459</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="D5" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>85</v>
@@ -35430,16 +35496,16 @@
     </row>
     <row r="6" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="D6" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>86</v>
@@ -35448,16 +35514,16 @@
     </row>
     <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="64" t="s">
         <v>467</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="D7" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>83</v>
@@ -35466,16 +35532,16 @@
     </row>
     <row r="8" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="42" t="s">
         <v>471</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="D8" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>86</v>
@@ -35484,16 +35550,16 @@
     </row>
     <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="D9" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>83</v>
@@ -35502,16 +35568,16 @@
     </row>
     <row r="10" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="49" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C10" s="64" t="s">
         <v>478</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="D10" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>84</v>
@@ -35520,36 +35586,36 @@
     </row>
     <row r="11" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>481</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>482</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="D12" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>86</v>
@@ -35558,16 +35624,16 @@
     </row>
     <row r="13" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="49" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C13" s="64" t="s">
         <v>488</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="D13" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>85</v>
@@ -35576,56 +35642,56 @@
     </row>
     <row r="14" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="49" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C14" s="64" t="s">
         <v>491</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="D14" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="38" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>84</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="D16" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>85</v>
@@ -35634,16 +35700,16 @@
     </row>
     <row r="17" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="49" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C17" s="64" t="s">
         <v>499</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="D17" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>85</v>
@@ -35652,16 +35718,16 @@
     </row>
     <row r="18" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="49" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C18" s="64" t="s">
         <v>502</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="D18" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>83</v>
@@ -35670,16 +35736,16 @@
     </row>
     <row r="19" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="49" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C19" s="64" t="s">
         <v>505</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="D19" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>83</v>
@@ -35688,16 +35754,16 @@
     </row>
     <row r="20" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="49" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>84</v>
@@ -35706,16 +35772,16 @@
     </row>
     <row r="21" spans="1:6" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49" t="s">
+        <v>510</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>85</v>
@@ -35724,16 +35790,16 @@
     </row>
     <row r="22" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49" t="s">
+        <v>514</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>85</v>
@@ -35742,16 +35808,16 @@
     </row>
     <row r="23" spans="1:6" s="10" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C23" s="66" t="s">
         <v>519</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="D23" s="11" t="s">
         <v>520</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>521</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>83</v>
@@ -35760,16 +35826,16 @@
     </row>
     <row r="24" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="49" t="s">
+        <v>521</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>84</v>
@@ -35778,16 +35844,16 @@
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="32" t="s">
         <v>527</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="D25" s="11" t="s">
         <v>528</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>529</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>86</v>
@@ -35796,16 +35862,16 @@
     </row>
     <row r="26" spans="1:6" s="13" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="49" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="C26" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="D26" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>85</v>
@@ -35814,16 +35880,16 @@
     </row>
     <row r="27" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>83</v>
@@ -35832,16 +35898,16 @@
     </row>
     <row r="28" spans="1:6" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="49" t="s">
+        <v>535</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="D28" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>84</v>
@@ -35850,14 +35916,14 @@
     </row>
     <row r="29" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A29" s="49" t="s">
+        <v>539</v>
+      </c>
+      <c r="B29" s="40" t="s">
         <v>540</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>541</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E29" s="34" t="s">
         <v>83</v>
@@ -35866,14 +35932,14 @@
     </row>
     <row r="30" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A30" s="49" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E30" s="34" t="s">
         <v>85</v>
@@ -35882,14 +35948,14 @@
     </row>
     <row r="31" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="49" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E31" s="34" t="s">
         <v>84</v>
@@ -35906,7 +35972,7 @@
     </row>
     <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="49" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>117</v>
@@ -35915,7 +35981,7 @@
         <v>118</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>85</v>
@@ -35923,16 +35989,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C35" t="s">
         <v>549</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>550</v>
-      </c>
-      <c r="D35" t="s">
-        <v>551</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>85</v>
@@ -35940,67 +36006,67 @@
     </row>
     <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="s">
+        <v>551</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" t="s">
         <v>553</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C37" t="s">
         <v>557</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>122</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>84</v>
@@ -36012,16 +36078,16 @@
     </row>
     <row r="41" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A41" s="49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>85</v>
@@ -36029,16 +36095,16 @@
     </row>
     <row r="42" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A42" s="49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>85</v>
@@ -36046,16 +36112,16 @@
     </row>
     <row r="43" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C43" t="s">
         <v>136</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>119</v>
@@ -36063,24 +36129,28 @@
     </row>
     <row r="44" spans="1:5" s="51" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B44" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="D44" s="51" t="s">
+        <v>676</v>
+      </c>
+      <c r="E44" s="51" t="s">
         <v>179</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>677</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A43">
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D3" sqref="D3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="C37" sqref="C35:C37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -36089,14 +36159,10 @@
       <selection activeCell="B28" sqref="B28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A43">
       <selection activeCell="C37" sqref="C35:C37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D3" sqref="D3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -36126,10 +36192,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -36146,33 +36212,33 @@
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>677</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>678</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="38" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>571</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="C3" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>572</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>658</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>573</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>85</v>
@@ -36183,16 +36249,16 @@
     </row>
     <row r="4" spans="1:6" s="38" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="68" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>574</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D4" s="34" t="s">
         <v>575</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>576</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>86</v>
@@ -36203,16 +36269,16 @@
     </row>
     <row r="5" spans="1:6" s="38" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="68" t="s">
+        <v>576</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>577</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>578</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>129</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>83</v>
@@ -36223,16 +36289,16 @@
     </row>
     <row r="6" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C6" s="44" t="s">
         <v>137</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>86</v>
@@ -36243,16 +36309,16 @@
     </row>
     <row r="7" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>584</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>83</v>
@@ -36260,16 +36326,16 @@
     </row>
     <row r="8" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>587</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>84</v>
@@ -36280,16 +36346,16 @@
     </row>
     <row r="9" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>85</v>
@@ -36302,16 +36368,16 @@
     </row>
     <row r="11" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A11" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>85</v>
@@ -36319,16 +36385,16 @@
     </row>
     <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>83</v>
@@ -36339,16 +36405,16 @@
     </row>
     <row r="13" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A13" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>130</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>83</v>
@@ -36359,16 +36425,16 @@
     </row>
     <row r="14" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>121</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>84</v>
@@ -36376,16 +36442,16 @@
     </row>
     <row r="15" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>85</v>
@@ -36393,16 +36459,16 @@
     </row>
     <row r="16" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>95</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>86</v>
@@ -36410,16 +36476,16 @@
     </row>
     <row r="17" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A17" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>159</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>85</v>
@@ -36427,16 +36493,16 @@
     </row>
     <row r="18" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A18" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>96</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>83</v>
@@ -36444,16 +36510,16 @@
     </row>
     <row r="19" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>86</v>
@@ -36461,16 +36527,16 @@
     </row>
     <row r="20" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>98</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>84</v>
@@ -36478,16 +36544,16 @@
     </row>
     <row r="21" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A21" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>99</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>85</v>
@@ -36495,16 +36561,16 @@
     </row>
     <row r="22" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>131</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>86</v>
@@ -36512,16 +36578,16 @@
     </row>
     <row r="23" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>131</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>85</v>
@@ -36529,30 +36595,30 @@
     </row>
     <row r="24" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A24" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>100</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>85</v>
@@ -36560,16 +36626,16 @@
     </row>
     <row r="26" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A26" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>158</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>83</v>
@@ -36577,16 +36643,16 @@
     </row>
     <row r="27" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>101</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>86</v>
@@ -36594,16 +36660,16 @@
     </row>
     <row r="28" spans="1:6" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A28" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>157</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>83</v>
@@ -36614,16 +36680,16 @@
     </row>
     <row r="29" spans="1:6" s="13" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A29" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>85</v>
@@ -36631,36 +36697,36 @@
     </row>
     <row r="30" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A30" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>628</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>629</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>86</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>630</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>631</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>84</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -36668,7 +36734,7 @@
     </row>
     <row r="33" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A33" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>132</v>
@@ -36677,7 +36743,7 @@
         <v>134</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>83</v>
@@ -36685,16 +36751,16 @@
     </row>
     <row r="34" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A34" s="49" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C34" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>85</v>
@@ -36702,16 +36768,16 @@
     </row>
     <row r="35" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="49" t="s">
+        <v>633</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" t="s">
+        <v>647</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>635</v>
-      </c>
-      <c r="C35" t="s">
-        <v>648</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>636</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>86</v>
@@ -36719,16 +36785,16 @@
     </row>
     <row r="36" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B36" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" t="s">
+        <v>647</v>
+      </c>
+      <c r="D36" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="C36" t="s">
-        <v>648</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="E36" t="s">
         <v>86</v>
@@ -36736,54 +36802,54 @@
     </row>
     <row r="37" spans="1:5" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B37" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="51" t="s">
-        <v>175</v>
-      </c>
       <c r="D37" s="51" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B38" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="51" t="s">
-        <v>177</v>
-      </c>
       <c r="D38" s="51" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A32">
-      <selection activeCell="C34" sqref="C34"/>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D3" sqref="D3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A32">
+      <selection activeCell="B44" sqref="B44"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}">
       <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A32">
-      <selection activeCell="B44" sqref="B44"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D3" sqref="D3"/>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A32">
+      <selection activeCell="C34" sqref="C34"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -36813,7 +36879,11 @@
   </cols>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D13" sqref="D13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -36821,12 +36891,8 @@
       <selection activeCell="A11" sqref="A11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
       <selection activeCell="B11" sqref="B11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D13" sqref="D13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -36839,20 +36905,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="28.125" customWidth="1"/>
     <col min="3" max="3" width="67.125" customWidth="1"/>
-    <col min="4" max="4" width="75.25" customWidth="1"/>
+    <col min="4" max="4" width="75.25" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -36860,7 +36926,7 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -36872,7 +36938,7 @@
     </row>
     <row r="2" spans="1:6" s="38" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>17</v>
@@ -36880,8 +36946,8 @@
       <c r="C2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>162</v>
+      <c r="D2" s="34" t="s">
+        <v>683</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>83</v>
@@ -36892,7 +36958,7 @@
     </row>
     <row r="3" spans="1:6" s="38" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>20</v>
@@ -36900,7 +36966,7 @@
       <c r="C3" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="34" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="38" t="s">
@@ -36912,7 +36978,7 @@
     </row>
     <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -36920,7 +36986,7 @@
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="25" t="s">
         <v>81</v>
       </c>
       <c r="E4" t="s">
@@ -36929,7 +36995,7 @@
     </row>
     <row r="5" spans="1:6" s="38" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>23</v>
@@ -36937,19 +37003,19 @@
       <c r="C5" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>88</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>86</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="38" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>24</v>
@@ -36957,19 +37023,19 @@
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>89</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="38" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>25</v>
@@ -36977,16 +37043,21 @@
       <c r="C7" s="39" t="s">
         <v>29</v>
       </c>
+      <c r="D7" s="37"/>
       <c r="E7" s="38" t="s">
         <v>83</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="C9" sqref="C9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="B16" sqref="B16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -36995,14 +37066,10 @@
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
       <selection activeCell="B16" sqref="B16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="C9" sqref="C9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -37014,7 +37081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="202" workbookViewId="0">
+    <sheetView zoomScaleNormal="202" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -37028,7 +37095,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -37048,24 +37115,29 @@
     </row>
     <row r="2" spans="1:6" s="25" customFormat="1" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -37073,14 +37145,9 @@
       <selection activeCell="B23" sqref="B23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
       <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D2" sqref="D2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/update_data/data/ecovacs/qa/问答整理.xlsx
+++ b/update_data/data/ecovacs/qa/问答整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="105" windowWidth="14430" windowHeight="12690" activeTab="7"/>
+    <workbookView xWindow="8250" yWindow="105" windowWidth="14430" windowHeight="12690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="门店" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1675" windowHeight="837" activeSheetId="1"/>
+    <customWorkbookView name="颜倩 - 个人视图" guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" activeSheetId="6"/>
+    <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" activeSheetId="1"/>
     <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="9"/>
-    <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" activeSheetId="1"/>
-    <customWorkbookView name="颜倩 - 个人视图" guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" activeSheetId="6"/>
-    <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1675" windowHeight="837" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -3252,7 +3252,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{05F7C8A4-8D1C-4425-B38C-B9B6DA0F5E7E}" diskRevisions="1" revisionId="3524" version="678">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4E475533-467E-4EC3-94FB-7C4FFEA16A3E}" diskRevisions="1" revisionId="3526" version="679">
   <header guid="{6D9F5AE3-D12B-4167-924E-9AD1BDC9A3C4}" dateTime="2017-11-03T11:01:41" maxSheetId="10" userName="fang.gao(高芳)" r:id="rId446" minRId="1881" maxRId="1905">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -6368,6 +6368,20 @@
       <sheetId val="10"/>
     </sheetIdMap>
   </header>
+  <header guid="{4E475533-467E-4EC3-94FB-7C4FFEA16A3E}" dateTime="2017-12-22T13:36:16" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId679" minRId="3525" maxRId="3526">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -7700,6 +7714,45 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="3525" sId="5" ref="A32:XFD32" action="deleteRow">
+    <rfmt sheetId="5" xfDxf="1" sqref="A32:XFD32" start="0" length="0"/>
+    <rfmt sheetId="5" sqref="A32" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="5" sqref="B32" start="0" length="0">
+      <dxf>
+        <alignment vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="3526" sId="5" ref="A32:XFD32" action="deleteRow">
+    <rfmt sheetId="5" xfDxf="1" sqref="A32:XFD32" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor rgb="FFFF0000"/>
+          </patternFill>
+        </fill>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="5" sqref="A32" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="5" sqref="B32" start="0" length="0">
+      <dxf>
+        <alignment vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rrc>
 </revisions>
 </file>
 
@@ -32929,7 +32982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="172" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="172" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -33194,23 +33247,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+      <selection activeCell="B8" sqref="B8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="B4">
+      <selection activeCell="C18" sqref="C18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A9">
       <selection activeCell="B25" sqref="B25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="B4">
-      <selection activeCell="C18" sqref="C18"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
-      <selection activeCell="B8" sqref="B8"/>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -33305,16 +33358,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D3" sqref="D3"/>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
-      <selection activeCell="A2" sqref="A2"/>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D3" sqref="D3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -33581,23 +33634,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="B3" sqref="B3"/>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+      <selection activeCell="D10" sqref="D8:D10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="C1">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A13">
       <selection activeCell="D10" sqref="D8:D10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="C1">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
-      <selection activeCell="D10" sqref="D8:D10"/>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="B3" sqref="B3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -33617,7 +33670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="220" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -33718,20 +33771,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D2" sqref="D2"/>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="C1">
+      <selection activeCell="C22" sqref="C21:C22"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A4">
       <selection activeCell="C6" sqref="A6:XFD47"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}">
-      <selection activeCell="A7" sqref="A7"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="C1">
-      <selection activeCell="C22" sqref="C21:C22"/>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -33749,7 +33802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="172" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="172" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -35358,8 +35411,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D2" sqref="D2"/>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A82">
+      <selection activeCell="B91" sqref="B91:B92"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="A52">
+      <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -35367,14 +35424,10 @@
       <selection activeCell="A89" sqref="A89:XFD89"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="A52">
-      <selection activeCell="B4" sqref="B4"/>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A82">
-      <selection activeCell="B91" sqref="B91:B92"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -35385,10 +35438,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -35962,195 +36015,183 @@
       </c>
       <c r="F31" s="37"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="49"/>
-      <c r="C32"/>
+    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="49" t="s">
+        <v>546</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="33" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="63"/>
-      <c r="B33" s="12"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C33" t="s">
+        <v>549</v>
+      </c>
+      <c r="D33" t="s">
+        <v>550</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="49" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>117</v>
+        <v>552</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>553</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>85</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="49" t="s">
+        <v>539</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C35" t="s">
+        <v>557</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="C35" t="s">
-        <v>549</v>
-      </c>
-      <c r="D35" t="s">
-        <v>550</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>85</v>
+      <c r="B37" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A36" s="49" t="s">
-        <v>551</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C36" t="s">
-        <v>553</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>555</v>
-      </c>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="49"/>
+      <c r="C38"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="49" t="s">
-        <v>539</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="C37" t="s">
-        <v>557</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="49" t="s">
-        <v>457</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A39" s="49" t="s">
         <v>449</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>122</v>
+        <v>135</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>646</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="49"/>
-      <c r="C40"/>
+    <row r="40" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A40" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="41" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="49" t="s">
         <v>449</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>566</v>
+        <v>669</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>675</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" s="51" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="49" t="s">
         <v>449</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="C43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>675</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="51" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="B44" s="51" t="s">
+      <c r="B42" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C42" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="D42" s="51" t="s">
         <v>676</v>
       </c>
-      <c r="E44" s="51" t="s">
+      <c r="E42" s="51" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D3" sqref="D3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A43">
       <selection activeCell="C37" sqref="C35:C37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -36159,10 +36200,14 @@
       <selection activeCell="B28" sqref="B28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A43">
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="C37" sqref="C35:C37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D3" sqref="D3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -36836,20 +36881,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D3" sqref="D3"/>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A32">
+      <selection activeCell="C34" sqref="C34"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}">
+      <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A32">
       <selection activeCell="B44" sqref="B44"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}">
-      <selection activeCell="B10" sqref="B10"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A32">
-      <selection activeCell="C34" sqref="C34"/>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D3" sqref="D3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -36879,11 +36924,7 @@
   </cols>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D13" sqref="D13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -36891,8 +36932,12 @@
       <selection activeCell="A11" sqref="A11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="B11" sqref="B11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D13" sqref="D13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -36905,8 +36950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -37053,11 +37098,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="C9" sqref="C9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
       <selection activeCell="B16" sqref="B16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -37066,10 +37107,14 @@
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="B16" sqref="B16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="C9" sqref="C9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -37132,12 +37177,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D2" sqref="D2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
       <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -37145,9 +37185,14 @@
       <selection activeCell="B23" sqref="B23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/update_data/data/ecovacs/qa/问答整理.xlsx
+++ b/update_data/data/ecovacs/qa/问答整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="105" windowWidth="14430" windowHeight="12690" activeTab="2"/>
+    <workbookView xWindow="8250" yWindow="105" windowWidth="14430" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="门店" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,16 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="9"/>
+    <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" activeSheetId="1"/>
+    <customWorkbookView name="颜倩 - 个人视图" guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" activeSheetId="6"/>
     <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1675" windowHeight="837" activeSheetId="1"/>
-    <customWorkbookView name="颜倩 - 个人视图" guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" activeSheetId="6"/>
-    <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" activeSheetId="1"/>
-    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{4C897239-E14A-471E-89F3-95C6C546A60F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="9"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="692">
   <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1079,10 +1079,6 @@
   </si>
   <si>
     <t>退货的话怎么办？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在三包有效期内，符合退换货条件的，是可以联系工作人员办理退换货的，详情您可以进店咨询！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2897,6 +2893,38 @@
   <si>
     <t>给我介绍一下科沃斯？/科沃斯/科沃斯怎么样？/你们是科沃斯的/你是啥牌子的/你哪个牌子的呀</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么申请售后？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在三包有效期内，符合退换货条件的，是可以联系工作人员办理退换货的，详情您可以进店咨询！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您可以进店咨询我的店长大人，她会为您详细解说的哦。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后服务怎么办/怎么办理售后服务/我想知道这里是怎么办理售后的/你知道怎么申请售后吗/我想问一下售后是怎么申请的/你可以跟我说一下怎么售后申请吗/你可以不可以跟我说一下售后是怎么办理的/你能告诉我怎么申请售后吗/申请售后是怎么办理的/可以告诉我怎么售后怎么申请吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testDD56</t>
+  </si>
+  <si>
+    <t>testDG36</t>
+  </si>
+  <si>
+    <t>testA650</t>
+  </si>
+  <si>
+    <t>testW855</t>
   </si>
 </sst>
 </file>
@@ -3027,7 +3055,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3233,6 +3261,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3252,7 +3283,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4E475533-467E-4EC3-94FB-7C4FFEA16A3E}" diskRevisions="1" revisionId="3526" version="679">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D00EB968-DAA4-430E-BA0C-304645DB086D}" diskRevisions="1" revisionId="3542" version="686">
   <header guid="{6D9F5AE3-D12B-4167-924E-9AD1BDC9A3C4}" dateTime="2017-11-03T11:01:41" maxSheetId="10" userName="fang.gao(高芳)" r:id="rId446" minRId="1881" maxRId="1905">
     <sheetIdMap count="9">
       <sheetId val="1"/>
@@ -6382,6 +6413,104 @@
       <sheetId val="10"/>
     </sheetIdMap>
   </header>
+  <header guid="{5EE181C7-F9FB-4D6E-BA6B-F83F96D625D2}" dateTime="2018-01-05T09:57:43" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId680" minRId="3527" maxRId="3528">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A60D9B91-9940-4A1E-8AFD-8F4434796CE2}" dateTime="2018-01-05T10:19:38" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId681" minRId="3529" maxRId="3531">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{576DAA94-0DE0-4E95-B362-3A463CDDEE87}" dateTime="2018-01-05T10:21:51" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId682" minRId="3532">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3711CBD8-EFE0-4B0A-8DD0-EE6570437C0B}" dateTime="2018-01-05T10:22:05" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId683" minRId="3533">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E98CC076-1D4A-41F4-917C-17332618A4FE}" dateTime="2018-01-05T10:25:52" maxSheetId="11" userName="lulu.wang(王路路)" r:id="rId684" minRId="3534">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C6C5F5EB-679C-4B2F-9340-7CF60954BAAC}" dateTime="2018-01-24T10:09:58" maxSheetId="11" userName="fang.gao(高芳)" r:id="rId685" minRId="3535" maxRId="3538">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D00EB968-DAA4-430E-BA0C-304645DB086D}" dateTime="2018-01-24T10:22:41" maxSheetId="11" userName="xin.zheng(郑新)" r:id="rId686" minRId="3539" maxRId="3542">
+    <sheetIdMap count="10">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -7753,6 +7882,243 @@
       </dxf>
     </rfmt>
   </rrc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3527" sId="2">
+    <nc r="A15" t="inlineStr">
+      <is>
+        <t>售后</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="A15:XFD15" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="3528" sId="2">
+    <nc r="B15" t="inlineStr">
+      <is>
+        <t>怎么申请售后？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3529" sId="2">
+    <oc r="C7" t="inlineStr">
+      <is>
+        <t>在三包有效期内，符合退换货条件的，是可以联系工作人员办理退换货的，详情您可以进店咨询！</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C7" t="inlineStr">
+      <is>
+        <t>在三包有效期内，符合退换货条件的，是可以联系工作人员办理退换货的，详情您可以进店咨询！</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="C15" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="A15:XFD15" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="3530" sId="2">
+    <nc r="C15" t="inlineStr">
+      <is>
+        <t>详情您可以进店咨询！</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="D15">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="3531" sId="2">
+    <nc r="D15" t="inlineStr">
+      <is>
+        <t>售后服务怎么办/怎么办理售后服务/我想知道这里是怎么办理售后的/你知道怎么申请售后吗/我想问一下售后是怎么申请的/你可以跟我说一下怎么售后申请吗/你可以不可以跟我说一下售后是怎么办理的/你能告诉我</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="2" sqref="C15" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="C15" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="3532" sId="2">
+    <oc r="C15" t="inlineStr">
+      <is>
+        <t>详情您可以进店咨询！</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C15" t="inlineStr">
+      <is>
+        <t>您可以进店咨询我的店长大人，她会为您详细解说的哦。</t>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3533" sId="2">
+    <nc r="E15" t="inlineStr">
+      <is>
+        <t>亲亲</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog35.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3534" sId="2">
+    <oc r="D15" t="inlineStr">
+      <is>
+        <t>售后服务怎么办/怎么办理售后服务/我想知道这里是怎么办理售后的/你知道怎么申请售后吗/我想问一下售后是怎么申请的/你可以跟我说一下怎么售后申请吗/你可以不可以跟我说一下售后是怎么办理的/你能告诉我</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D15" t="inlineStr">
+      <is>
+        <t>售后服务怎么办/怎么办理售后服务/我想知道这里是怎么办理售后的/你知道怎么申请售后吗/我想问一下售后是怎么申请的/你可以跟我说一下怎么售后申请吗/你可以不可以跟我说一下售后是怎么办理的/你能告诉我怎么申请售后吗/申请售后是怎么办理的/可以告诉我怎么售后怎么申请吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog36.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3535" sId="1" xfDxf="1" dxf="1">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>科沃斯有哪些产品？</t>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>testDD56</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3536" sId="1" xfDxf="1" dxf="1">
+    <oc r="F5" t="inlineStr">
+      <is>
+        <t>科沃斯有哪些产品？</t>
+      </is>
+    </oc>
+    <nc r="F5" t="inlineStr">
+      <is>
+        <t>testDG36</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" xfDxf="1" sqref="F7" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="3537" sId="1" xfDxf="1" dxf="1">
+    <nc r="F7" t="inlineStr">
+      <is>
+        <t>testA650</t>
+      </is>
+    </nc>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="3538" sId="1" xfDxf="1" dxf="1">
+    <nc r="F6" t="inlineStr">
+      <is>
+        <t>testW855</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog37.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3539" sId="1">
+    <nc r="G2">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="3540" sId="1">
+    <nc r="G5">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="3541" sId="1">
+    <nc r="G6">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcc rId="3542" sId="1">
+    <nc r="G7">
+      <v>10</v>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -32684,7 +33050,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="4">
   <userInfo guid="{6D9F5AE3-D12B-4167-924E-9AD1BDC9A3C4}" name="fang.gao(高芳)" id="-240646404" dateTime="2017-11-03T11:06:54"/>
   <userInfo guid="{A3F7F8FE-1F87-4D8A-B045-3606F33F1C85}" name="lulu.wang(王路路)" id="-627624903" dateTime="2017-11-14T10:08:27"/>
@@ -32980,22 +33346,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="58.625" customWidth="1"/>
+    <col min="3" max="3" width="71.75" customWidth="1"/>
     <col min="4" max="4" width="102.875" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>191</v>
       </c>
@@ -33015,7 +33381,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -33026,14 +33392,17 @@
         <v>200</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>688</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>201</v>
       </c>
@@ -33041,7 +33410,7 @@
         <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>203</v>
@@ -33053,7 +33422,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -33073,7 +33442,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -33090,10 +33459,13 @@
         <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>689</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -33109,8 +33481,14 @@
       <c r="E6" t="s">
         <v>83</v>
       </c>
+      <c r="F6" t="s">
+        <v>691</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>214</v>
       </c>
@@ -33126,8 +33504,14 @@
       <c r="E7" s="10" t="s">
         <v>83</v>
       </c>
+      <c r="F7" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="G7" s="10">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>214</v>
       </c>
@@ -33144,7 +33528,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>214</v>
       </c>
@@ -33161,7 +33545,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>214</v>
       </c>
@@ -33178,7 +33562,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -33186,7 +33570,7 @@
         <v>227</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>228</v>
@@ -33195,37 +33579,37 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>198</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C12" s="70" t="s">
+        <v>650</v>
+      </c>
+      <c r="D12" s="71" t="s">
         <v>651</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>652</v>
       </c>
       <c r="E12" s="72" t="s">
         <v>83</v>
       </c>
       <c r="F12" s="72"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D16"/>
       <c r="E16"/>
     </row>
@@ -33247,23 +33631,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
-      <selection activeCell="B8" sqref="B8"/>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A9">
+      <selection activeCell="B25" sqref="B25"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="B4">
       <selection activeCell="C18" sqref="C18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A9">
-      <selection activeCell="B25" sqref="B25"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+      <selection activeCell="B8" sqref="B8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -33284,7 +33668,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33296,7 +33680,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -33316,7 +33700,7 @@
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B2" t="s">
         <v>182</v>
@@ -33325,12 +33709,12 @@
         <v>183</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B3" t="s">
         <v>187</v>
@@ -33339,35 +33723,35 @@
         <v>183</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C4" t="s">
         <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
-      <selection activeCell="A2" sqref="A2"/>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D3" sqref="D3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D3" sqref="D3"/>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -33378,10 +33762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="D10" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33405,7 +33789,7 @@
         <v>243</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>244</v>
@@ -33504,10 +33888,10 @@
         <v>263</v>
       </c>
       <c r="C7" t="s">
+        <v>684</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>264</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>265</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>83</v>
@@ -33518,13 +33902,13 @@
         <v>245</v>
       </c>
       <c r="B8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="D8" s="59" t="s">
         <v>268</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>269</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>85</v>
@@ -33532,16 +33916,16 @@
     </row>
     <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" t="s">
         <v>270</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>84</v>
@@ -33583,16 +33967,16 @@
     </row>
     <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" t="s">
         <v>274</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>275</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="62" t="s">
         <v>276</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>277</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>85</v>
@@ -33600,16 +33984,16 @@
     </row>
     <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="62" t="s">
         <v>278</v>
-      </c>
-      <c r="C13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>279</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>85</v>
@@ -33632,25 +34016,42 @@
         <v>85</v>
       </c>
     </row>
+    <row r="15" spans="1:6" s="14" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>687</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>686</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="B3" sqref="B3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A13">
       <selection activeCell="D10" sqref="D8:D10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="C1">
       <selection activeCell="D1" sqref="D1:D1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A13">
-      <selection activeCell="D10" sqref="D8:D10"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="B3" sqref="B3"/>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+      <selection activeCell="D10" sqref="D8:D10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -33670,8 +34071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C6" sqref="A6:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33698,21 +34099,21 @@
         <v>233</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" t="s">
         <v>281</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>282</v>
       </c>
-      <c r="C2" t="s">
-        <v>283</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
@@ -33720,16 +34121,16 @@
     </row>
     <row r="3" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" t="s">
         <v>284</v>
       </c>
-      <c r="C3" t="s">
-        <v>285</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E3" t="s">
         <v>84</v>
@@ -33737,16 +34138,16 @@
     </row>
     <row r="4" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="E4" t="s">
         <v>85</v>
@@ -33754,16 +34155,16 @@
     </row>
     <row r="5" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="E5" t="s">
         <v>86</v>
@@ -33771,20 +34172,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="C1">
-      <selection activeCell="C22" sqref="C21:C22"/>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A4">
+      <selection activeCell="C6" sqref="A6:XFD47"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}">
       <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A4">
-      <selection activeCell="C6" sqref="A6:XFD47"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D2" sqref="D2"/>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="C1">
+      <selection activeCell="C22" sqref="C21:C22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -33802,8 +34203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33816,7 +34217,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>0</v>
@@ -33836,114 +34237,114 @@
     </row>
     <row r="2" spans="1:6" s="50" customFormat="1" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="50" t="s">
+        <v>639</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="D2" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>642</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>673</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>643</v>
       </c>
       <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>138</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>138</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="D6" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>301</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>86</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>139</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>83</v>
@@ -33952,16 +34353,16 @@
     </row>
     <row r="8" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>140</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>86</v>
@@ -33970,16 +34371,16 @@
     </row>
     <row r="9" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>83</v>
@@ -33988,16 +34389,16 @@
     </row>
     <row r="10" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>142</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>84</v>
@@ -34006,16 +34407,16 @@
     </row>
     <row r="11" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>143</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>85</v>
@@ -34024,7 +34425,7 @@
     </row>
     <row r="12" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>30</v>
@@ -34033,7 +34434,7 @@
         <v>143</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>86</v>
@@ -34042,7 +34443,7 @@
     </row>
     <row r="13" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A13" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>33</v>
@@ -34051,7 +34452,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>85</v>
@@ -34060,16 +34461,16 @@
     </row>
     <row r="14" spans="1:6" ht="159" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>144</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>83</v>
@@ -34078,7 +34479,7 @@
     </row>
     <row r="15" spans="1:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>31</v>
@@ -34087,7 +34488,7 @@
         <v>145</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>84</v>
@@ -34096,32 +34497,32 @@
     </row>
     <row r="16" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>146</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A17" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>85</v>
@@ -34130,7 +34531,7 @@
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>32</v>
@@ -34139,7 +34540,7 @@
         <v>126</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>83</v>
@@ -34148,7 +34549,7 @@
     </row>
     <row r="19" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A19" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>34</v>
@@ -34157,7 +34558,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>83</v>
@@ -34166,7 +34567,7 @@
     </row>
     <row r="20" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A20" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>36</v>
@@ -34175,7 +34576,7 @@
         <v>147</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>84</v>
@@ -34184,16 +34585,16 @@
     </row>
     <row r="21" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>148</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>85</v>
@@ -34202,7 +34603,7 @@
     </row>
     <row r="22" spans="1:6" s="36" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B22" s="56" t="s">
         <v>82</v>
@@ -34211,7 +34612,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>85</v>
@@ -34222,16 +34623,16 @@
     </row>
     <row r="23" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A23" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>149</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>83</v>
@@ -34242,16 +34643,16 @@
     </row>
     <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>143</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>84</v>
@@ -34262,7 +34663,7 @@
     </row>
     <row r="25" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>116</v>
@@ -34271,7 +34672,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>86</v>
@@ -34280,7 +34681,7 @@
     </row>
     <row r="26" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A26" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>40</v>
@@ -34289,7 +34690,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>85</v>
@@ -34298,16 +34699,16 @@
     </row>
     <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A27" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>83</v>
@@ -34316,16 +34717,16 @@
     </row>
     <row r="28" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>151</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>84</v>
@@ -34334,16 +34735,16 @@
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A29" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C29" s="51" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>83</v>
@@ -34354,16 +34755,16 @@
     </row>
     <row r="30" spans="1:6" s="13" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C30" s="54" t="s">
         <v>337</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="D30" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>85</v>
@@ -34374,16 +34775,16 @@
     </row>
     <row r="31" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A31" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>84</v>
@@ -34392,7 +34793,7 @@
     </row>
     <row r="32" spans="1:6" s="38" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A32" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B32" s="40" t="s">
         <v>5</v>
@@ -34401,7 +34802,7 @@
         <v>57</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E32" s="34" t="s">
         <v>86</v>
@@ -34412,7 +34813,7 @@
     </row>
     <row r="33" spans="1:6" s="15" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>6</v>
@@ -34421,7 +34822,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>83</v>
@@ -34430,16 +34831,16 @@
     </row>
     <row r="34" spans="1:6" s="15" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A34" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>86</v>
@@ -34448,7 +34849,7 @@
     </row>
     <row r="35" spans="1:6" s="38" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A35" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" s="40" t="s">
         <v>7</v>
@@ -34457,7 +34858,7 @@
         <v>45</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E35" s="34" t="s">
         <v>86</v>
@@ -34468,7 +34869,7 @@
     </row>
     <row r="36" spans="1:6" s="15" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>8</v>
@@ -34477,7 +34878,7 @@
         <v>58</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>83</v>
@@ -34488,16 +34889,16 @@
     </row>
     <row r="37" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>86</v>
@@ -34506,7 +34907,7 @@
     </row>
     <row r="38" spans="1:6" s="15" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>9</v>
@@ -34515,7 +34916,7 @@
         <v>70</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>85</v>
@@ -34524,16 +34925,16 @@
     </row>
     <row r="39" spans="1:6" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>83</v>
@@ -34542,16 +34943,16 @@
     </row>
     <row r="40" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A40" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>84</v>
@@ -34560,10 +34961,10 @@
     </row>
     <row r="41" spans="1:6" s="38" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A41" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>59</v>
@@ -34580,16 +34981,16 @@
     </row>
     <row r="42" spans="1:6" s="38" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E42" s="34" t="s">
         <v>86</v>
@@ -34600,16 +35001,16 @@
     </row>
     <row r="43" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A43" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>83</v>
@@ -34618,16 +35019,16 @@
     </row>
     <row r="44" spans="1:6" s="15" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A44" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C44" s="51" t="s">
         <v>67</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>84</v>
@@ -34636,16 +35037,16 @@
     </row>
     <row r="45" spans="1:6" s="15" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>85</v>
@@ -34654,7 +35055,7 @@
     </row>
     <row r="46" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A46" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>11</v>
@@ -34663,7 +35064,7 @@
         <v>47</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>83</v>
@@ -34672,16 +35073,16 @@
     </row>
     <row r="47" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A47" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>85</v>
@@ -34690,16 +35091,16 @@
     </row>
     <row r="48" spans="1:6" s="15" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>86</v>
@@ -34708,7 +35109,7 @@
     </row>
     <row r="49" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A49" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>12</v>
@@ -34717,7 +35118,7 @@
         <v>62</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>84</v>
@@ -34726,16 +35127,16 @@
     </row>
     <row r="50" spans="1:6" s="15" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>83</v>
@@ -34744,16 +35145,16 @@
     </row>
     <row r="51" spans="1:6" s="15" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>86</v>
@@ -34762,7 +35163,7 @@
     </row>
     <row r="52" spans="1:6" s="15" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>73</v>
@@ -34780,7 +35181,7 @@
     </row>
     <row r="53" spans="1:6" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A53" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>13</v>
@@ -34789,7 +35190,7 @@
         <v>54</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>83</v>
@@ -34798,16 +35199,16 @@
     </row>
     <row r="54" spans="1:6" s="15" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>85</v>
@@ -34816,7 +35217,7 @@
     </row>
     <row r="55" spans="1:6" s="15" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>14</v>
@@ -34825,7 +35226,7 @@
         <v>64</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>86</v>
@@ -34834,16 +35235,16 @@
     </row>
     <row r="56" spans="1:6" s="15" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A56" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>84</v>
@@ -34852,16 +35253,16 @@
     </row>
     <row r="57" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A57" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>83</v>
@@ -34870,16 +35271,16 @@
     </row>
     <row r="58" spans="1:6" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>85</v>
@@ -34888,7 +35289,7 @@
     </row>
     <row r="59" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A59" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>15</v>
@@ -34897,7 +35298,7 @@
         <v>66</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>86</v>
@@ -34906,16 +35307,16 @@
     </row>
     <row r="60" spans="1:6" s="38" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A60" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C60" s="41" t="s">
         <v>55</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E60" s="34" t="s">
         <v>85</v>
@@ -34924,16 +35325,16 @@
     </row>
     <row r="61" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A61" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>85</v>
@@ -34942,16 +35343,16 @@
     </row>
     <row r="62" spans="1:6" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>86</v>
@@ -34960,7 +35361,7 @@
     </row>
     <row r="63" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A63" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>16</v>
@@ -34969,7 +35370,7 @@
         <v>52</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>83</v>
@@ -34978,16 +35379,16 @@
     </row>
     <row r="64" spans="1:6" s="15" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A64" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>85</v>
@@ -34996,16 +35397,16 @@
     </row>
     <row r="65" spans="1:6" s="15" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A65" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>84</v>
@@ -35014,16 +35415,16 @@
     </row>
     <row r="66" spans="1:6" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>86</v>
@@ -35032,16 +35433,16 @@
     </row>
     <row r="67" spans="1:6" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>86</v>
@@ -35050,16 +35451,16 @@
     </row>
     <row r="68" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A68" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B68" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="C68" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="D68" s="34" t="s">
         <v>403</v>
-      </c>
-      <c r="D68" s="34" t="s">
-        <v>404</v>
       </c>
       <c r="E68" s="34" t="s">
         <v>83</v>
@@ -35068,7 +35469,7 @@
     </row>
     <row r="69" spans="1:6" s="38" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A69" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B69" s="40" t="s">
         <v>78</v>
@@ -35077,7 +35478,7 @@
         <v>79</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E69" s="34" t="s">
         <v>84</v>
@@ -35086,16 +35487,16 @@
     </row>
     <row r="70" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A70" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B70" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="C70" s="41" t="s">
         <v>406</v>
       </c>
-      <c r="C70" s="41" t="s">
+      <c r="D70" s="34" t="s">
         <v>407</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>408</v>
       </c>
       <c r="E70" s="34" t="s">
         <v>85</v>
@@ -35104,16 +35505,16 @@
     </row>
     <row r="71" spans="1:6" s="38" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A71" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="B71" s="40" t="s">
         <v>409</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="C71" s="41" t="s">
         <v>410</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="D71" s="34" t="s">
         <v>411</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>412</v>
       </c>
       <c r="E71" s="34" t="s">
         <v>83</v>
@@ -35122,16 +35523,16 @@
     </row>
     <row r="72" spans="1:6" s="38" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A72" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="B72" s="40" t="s">
         <v>413</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="C72" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="C72" s="41" t="s">
+      <c r="D72" s="34" t="s">
         <v>415</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>416</v>
       </c>
       <c r="E72" s="34" t="s">
         <v>83</v>
@@ -35140,16 +35541,16 @@
     </row>
     <row r="73" spans="1:6" s="38" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A73" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B73" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="C73" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="D73" s="34" t="s">
         <v>418</v>
-      </c>
-      <c r="D73" s="34" t="s">
-        <v>419</v>
       </c>
       <c r="E73" s="34" t="s">
         <v>86</v>
@@ -35158,14 +35559,14 @@
     </row>
     <row r="74" spans="1:6" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A74" s="49" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C74" s="51"/>
       <c r="D74" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>84</v>
@@ -35179,7 +35580,7 @@
     </row>
     <row r="76" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>107</v>
@@ -35188,7 +35589,7 @@
         <v>152</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>87</v>
@@ -35196,7 +35597,7 @@
     </row>
     <row r="77" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>108</v>
@@ -35205,7 +35606,7 @@
         <v>153</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E77" t="s">
         <v>115</v>
@@ -35213,16 +35614,16 @@
     </row>
     <row r="78" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>87</v>
@@ -35230,7 +35631,7 @@
     </row>
     <row r="79" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>110</v>
@@ -35239,24 +35640,24 @@
         <v>48</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E79" t="s">
         <v>426</v>
-      </c>
-      <c r="E79" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>429</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>154</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E80" t="s">
         <v>115</v>
@@ -35264,7 +35665,7 @@
     </row>
     <row r="81" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A81" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>111</v>
@@ -35273,7 +35674,7 @@
         <v>155</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E81" t="s">
         <v>115</v>
@@ -35281,16 +35682,16 @@
     </row>
     <row r="82" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E82" t="s">
         <v>87</v>
@@ -35298,7 +35699,7 @@
     </row>
     <row r="83" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>112</v>
@@ -35307,7 +35708,7 @@
         <v>152</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E83" t="s">
         <v>87</v>
@@ -35315,36 +35716,36 @@
     </row>
     <row r="84" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E84" t="s">
         <v>435</v>
-      </c>
-      <c r="E84" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A85" s="49" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B85" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="C85" s="40" t="s">
         <v>437</v>
       </c>
-      <c r="C85" s="40" t="s">
+      <c r="D85" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="D85" s="39" t="s">
-        <v>439</v>
-      </c>
       <c r="E85" s="38" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F85" s="38" t="s">
         <v>164</v>
@@ -35355,16 +35756,16 @@
     </row>
     <row r="87" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="49" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C87" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>86</v>
@@ -35372,16 +35773,16 @@
     </row>
     <row r="88" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A88" s="49" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B88" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>442</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>443</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>85</v>
@@ -35389,16 +35790,16 @@
     </row>
     <row r="89" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="49" t="s">
+        <v>443</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="C89" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>445</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>446</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>83</v>
@@ -35406,17 +35807,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B90" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A82">
-      <selection activeCell="B91" sqref="B91:B92"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="A52">
-      <selection activeCell="B4" sqref="B4"/>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -35424,15 +35821,18 @@
       <selection activeCell="A89" sqref="A89:XFD89"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D2" sqref="D2"/>
+    <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}" topLeftCell="A52">
+      <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A82">
+      <selection activeCell="B91" sqref="B91:B92"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -35440,8 +35840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C35:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -35454,7 +35854,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>0</v>
@@ -35474,7 +35874,7 @@
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>184</v>
@@ -35483,7 +35883,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>190</v>
@@ -35491,56 +35891,56 @@
     </row>
     <row r="3" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="43" t="s">
         <v>450</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="D3" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="43" t="s">
         <v>454</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="D4" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="193.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="D5" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>85</v>
@@ -35549,16 +35949,16 @@
     </row>
     <row r="6" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="D6" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>86</v>
@@ -35567,16 +35967,16 @@
     </row>
     <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="D7" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>83</v>
@@ -35585,16 +35985,16 @@
     </row>
     <row r="8" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
+        <v>468</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="42" t="s">
         <v>470</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="D8" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>86</v>
@@ -35603,16 +36003,16 @@
     </row>
     <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="64" t="s">
         <v>474</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="D9" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>83</v>
@@ -35621,16 +36021,16 @@
     </row>
     <row r="10" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="49" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C10" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="D10" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>84</v>
@@ -35639,16 +36039,16 @@
     </row>
     <row r="11" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>481</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>85</v>
@@ -35659,16 +36059,16 @@
     </row>
     <row r="12" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="D12" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>86</v>
@@ -35677,16 +36077,16 @@
     </row>
     <row r="13" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="49" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C13" s="64" t="s">
         <v>487</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="D13" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>85</v>
@@ -35695,16 +36095,16 @@
     </row>
     <row r="14" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C14" s="64" t="s">
         <v>490</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="D14" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>83</v>
@@ -35715,16 +36115,16 @@
     </row>
     <row r="15" spans="1:6" s="38" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>84</v>
@@ -35735,16 +36135,16 @@
     </row>
     <row r="16" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C16" s="64" t="s">
         <v>495</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="D16" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>85</v>
@@ -35753,16 +36153,16 @@
     </row>
     <row r="17" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="49" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C17" s="64" t="s">
         <v>498</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="D17" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>85</v>
@@ -35771,16 +36171,16 @@
     </row>
     <row r="18" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="49" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C18" s="64" t="s">
         <v>501</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="D18" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>83</v>
@@ -35789,16 +36189,16 @@
     </row>
     <row r="19" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="49" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C19" s="64" t="s">
         <v>504</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="D19" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>83</v>
@@ -35807,16 +36207,16 @@
     </row>
     <row r="20" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="49" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>84</v>
@@ -35825,16 +36225,16 @@
     </row>
     <row r="21" spans="1:6" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49" t="s">
+        <v>509</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>85</v>
@@ -35843,16 +36243,16 @@
     </row>
     <row r="22" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49" t="s">
+        <v>513</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>85</v>
@@ -35861,16 +36261,16 @@
     </row>
     <row r="23" spans="1:6" s="10" customFormat="1" ht="169.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="C23" s="66" t="s">
         <v>518</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="D23" s="11" t="s">
         <v>519</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>520</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>83</v>
@@ -35879,16 +36279,16 @@
     </row>
     <row r="24" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="49" t="s">
+        <v>520</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>84</v>
@@ -35897,16 +36297,16 @@
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="32" t="s">
         <v>526</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="D25" s="11" t="s">
         <v>527</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>528</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>86</v>
@@ -35915,16 +36315,16 @@
     </row>
     <row r="26" spans="1:6" s="13" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="C26" s="67" t="s">
         <v>529</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="D26" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>85</v>
@@ -35933,16 +36333,16 @@
     </row>
     <row r="27" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>83</v>
@@ -35951,16 +36351,16 @@
     </row>
     <row r="28" spans="1:6" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="49" t="s">
+        <v>534</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="25" t="s">
         <v>536</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="D28" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>84</v>
@@ -35969,14 +36369,14 @@
     </row>
     <row r="29" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A29" s="49" t="s">
+        <v>538</v>
+      </c>
+      <c r="B29" s="40" t="s">
         <v>539</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>540</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E29" s="34" t="s">
         <v>83</v>
@@ -35985,14 +36385,14 @@
     </row>
     <row r="30" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A30" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E30" s="34" t="s">
         <v>85</v>
@@ -36001,14 +36401,14 @@
     </row>
     <row r="31" spans="1:6" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E31" s="34" t="s">
         <v>84</v>
@@ -36017,7 +36417,7 @@
     </row>
     <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="49" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>117</v>
@@ -36026,7 +36426,7 @@
         <v>118</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>85</v>
@@ -36034,16 +36434,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C33" t="s">
         <v>548</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>549</v>
-      </c>
-      <c r="D33" t="s">
-        <v>550</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>85</v>
@@ -36051,67 +36451,67 @@
     </row>
     <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="49" t="s">
+        <v>550</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" t="s">
         <v>552</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C35" t="s">
         <v>556</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>122</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>84</v>
@@ -36123,16 +36523,16 @@
     </row>
     <row r="39" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A39" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>85</v>
@@ -36140,16 +36540,16 @@
     </row>
     <row r="40" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A40" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>85</v>
@@ -36157,16 +36557,16 @@
     </row>
     <row r="41" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C41" t="s">
         <v>136</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>119</v>
@@ -36174,7 +36574,7 @@
     </row>
     <row r="42" spans="1:5" s="51" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B42" s="51" t="s">
         <v>177</v>
@@ -36183,7 +36583,7 @@
         <v>178</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E42" s="51" t="s">
         <v>179</v>
@@ -36191,7 +36591,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A43">
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D3" sqref="D3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="C37" sqref="C35:C37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -36200,14 +36604,10 @@
       <selection activeCell="B28" sqref="B28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A43">
       <selection activeCell="C37" sqref="C35:C37"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D3" sqref="D3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -36217,6 +36617,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -36224,8 +36625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36237,7 +36638,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>185</v>
@@ -36257,7 +36658,7 @@
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>186</v>
@@ -36266,7 +36667,7 @@
         <v>188</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>189</v>
@@ -36274,16 +36675,16 @@
     </row>
     <row r="3" spans="1:6" s="38" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>570</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="C3" s="45" t="s">
+        <v>656</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>571</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>657</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>572</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>85</v>
@@ -36294,16 +36695,16 @@
     </row>
     <row r="4" spans="1:6" s="38" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="68" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>572</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>573</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D4" s="34" t="s">
         <v>574</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>575</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>86</v>
@@ -36314,16 +36715,16 @@
     </row>
     <row r="5" spans="1:6" s="38" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="68" t="s">
+        <v>575</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>576</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>577</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>129</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>83</v>
@@ -36334,16 +36735,16 @@
     </row>
     <row r="6" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C6" s="44" t="s">
         <v>137</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>86</v>
@@ -36354,16 +36755,16 @@
     </row>
     <row r="7" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>582</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>583</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>83</v>
@@ -36371,16 +36772,16 @@
     </row>
     <row r="8" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>585</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>586</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>84</v>
@@ -36391,16 +36792,16 @@
     </row>
     <row r="9" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>85</v>
@@ -36413,16 +36814,16 @@
     </row>
     <row r="11" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A11" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>85</v>
@@ -36430,16 +36831,16 @@
     </row>
     <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>83</v>
@@ -36450,16 +36851,16 @@
     </row>
     <row r="13" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A13" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>130</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>83</v>
@@ -36470,16 +36871,16 @@
     </row>
     <row r="14" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>121</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>84</v>
@@ -36487,16 +36888,16 @@
     </row>
     <row r="15" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>85</v>
@@ -36504,16 +36905,16 @@
     </row>
     <row r="16" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>95</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>86</v>
@@ -36521,16 +36922,16 @@
     </row>
     <row r="17" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A17" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>159</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>85</v>
@@ -36538,16 +36939,16 @@
     </row>
     <row r="18" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A18" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>96</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>83</v>
@@ -36555,16 +36956,16 @@
     </row>
     <row r="19" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>86</v>
@@ -36572,16 +36973,16 @@
     </row>
     <row r="20" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>98</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>84</v>
@@ -36589,16 +36990,16 @@
     </row>
     <row r="21" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A21" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>99</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>85</v>
@@ -36606,16 +37007,16 @@
     </row>
     <row r="22" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>131</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>86</v>
@@ -36623,16 +37024,16 @@
     </row>
     <row r="23" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>131</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>85</v>
@@ -36640,30 +37041,30 @@
     </row>
     <row r="24" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A24" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>100</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>85</v>
@@ -36671,16 +37072,16 @@
     </row>
     <row r="26" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A26" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>158</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>83</v>
@@ -36688,16 +37089,16 @@
     </row>
     <row r="27" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>101</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>86</v>
@@ -36705,16 +37106,16 @@
     </row>
     <row r="28" spans="1:6" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A28" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>157</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>83</v>
@@ -36725,16 +37126,16 @@
     </row>
     <row r="29" spans="1:6" s="13" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A29" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>85</v>
@@ -36742,36 +37143,36 @@
     </row>
     <row r="30" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A30" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>627</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>628</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>86</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>630</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>84</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -36779,7 +37180,7 @@
     </row>
     <row r="33" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A33" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>132</v>
@@ -36788,7 +37189,7 @@
         <v>134</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>83</v>
@@ -36796,16 +37197,16 @@
     </row>
     <row r="34" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A34" s="49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C34" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>85</v>
@@ -36813,16 +37214,16 @@
     </row>
     <row r="35" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" t="s">
+        <v>646</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="C35" t="s">
-        <v>647</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>635</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>86</v>
@@ -36830,13 +37231,13 @@
     </row>
     <row r="36" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A36" s="49" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>171</v>
       </c>
       <c r="C36" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>172</v>
@@ -36847,7 +37248,7 @@
     </row>
     <row r="37" spans="1:5" s="10" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B37" s="51" t="s">
         <v>173</v>
@@ -36856,7 +37257,7 @@
         <v>174</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>180</v>
@@ -36864,7 +37265,7 @@
     </row>
     <row r="38" spans="1:5" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="49" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B38" s="51" t="s">
         <v>175</v>
@@ -36873,7 +37274,7 @@
         <v>176</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>181</v>
@@ -36881,20 +37282,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A32">
-      <selection activeCell="C34" sqref="C34"/>
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D3" sqref="D3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A32">
+      <selection activeCell="B44" sqref="B44"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{ADF1220C-B02F-4F60-8B65-2B60ADF79DED}">
       <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}" topLeftCell="A32">
-      <selection activeCell="B44" sqref="B44"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D3" sqref="D3"/>
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}" topLeftCell="A32">
+      <selection activeCell="C34" sqref="C34"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -36913,7 +37314,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36924,7 +37325,11 @@
   </cols>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D13" sqref="D13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -36932,12 +37337,8 @@
       <selection activeCell="A11" sqref="A11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
       <selection activeCell="B11" sqref="B11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D13" sqref="D13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -36951,7 +37352,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36963,7 +37364,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -36983,7 +37384,7 @@
     </row>
     <row r="2" spans="1:6" s="38" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>17</v>
@@ -36992,7 +37393,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>83</v>
@@ -37003,7 +37404,7 @@
     </row>
     <row r="3" spans="1:6" s="38" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>20</v>
@@ -37023,7 +37424,7 @@
     </row>
     <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -37040,7 +37441,7 @@
     </row>
     <row r="5" spans="1:6" s="38" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>23</v>
@@ -37060,7 +37461,7 @@
     </row>
     <row r="6" spans="1:6" s="38" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>24</v>
@@ -37080,7 +37481,7 @@
     </row>
     <row r="7" spans="1:6" s="38" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>25</v>
@@ -37098,7 +37499,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="C9" sqref="C9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="B16" sqref="B16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -37107,18 +37512,15 @@
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
       <selection activeCell="B16" sqref="B16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="C9" sqref="C9"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -37127,7 +37529,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="202" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -37140,7 +37542,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -37160,7 +37562,7 @@
     </row>
     <row r="2" spans="1:6" s="25" customFormat="1" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>80</v>
@@ -37169,7 +37571,7 @@
         <v>170</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>169</v>
@@ -37177,7 +37579,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
+    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
+      <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
       <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -37185,18 +37592,12 @@
       <selection activeCell="B23" sqref="B23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{2E565CDA-A1C9-4FA8-B553-452C402E1F7C}">
+    <customSheetView guid="{838CEB5E-320F-4101-A629-23DA91C4D346}">
       <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{4C897239-E14A-471E-89F3-95C6C546A60F}">
-      <selection activeCell="D2" sqref="D2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>